--- a/Data/EXO/DESeq/CELLandEXOchangeMIR.xlsx
+++ b/Data/EXO/DESeq/CELLandEXOchangeMIR.xlsx
@@ -2,19 +2,25 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hrobinson\Documents\GITSTUFF\Data\EXO\DESeq\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harle_000\Documents\HONOURS\NewGIT\Data\EXO\DESeq\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13635"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13635" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <pivotCaches>
+    <pivotCache cacheId="12" r:id="rId5"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="234">
   <si>
     <t>hsa-let-7b-5p</t>
   </si>
@@ -327,6 +333,405 @@
   </si>
   <si>
     <t>fc-fc</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>-1.1--1.05</t>
+  </si>
+  <si>
+    <t>-1--0.95</t>
+  </si>
+  <si>
+    <t>-0.9--0.85</t>
+  </si>
+  <si>
+    <t>-0.85--0.8</t>
+  </si>
+  <si>
+    <t>-0.75--0.7</t>
+  </si>
+  <si>
+    <t>-0.7--0.65</t>
+  </si>
+  <si>
+    <t>-0.65--0.6</t>
+  </si>
+  <si>
+    <t>-0.6--0.55</t>
+  </si>
+  <si>
+    <t>-0.55--0.5</t>
+  </si>
+  <si>
+    <t>-0.5--0.45</t>
+  </si>
+  <si>
+    <t>-0.45--0.4</t>
+  </si>
+  <si>
+    <t>-0.4--0.35</t>
+  </si>
+  <si>
+    <t>-0.35--0.3</t>
+  </si>
+  <si>
+    <t>-0.3--0.25</t>
+  </si>
+  <si>
+    <t>-0.25--0.2</t>
+  </si>
+  <si>
+    <t>-0.2--0.15</t>
+  </si>
+  <si>
+    <t>-0.15--0.1</t>
+  </si>
+  <si>
+    <t>-0.1--0.0500000000000001</t>
+  </si>
+  <si>
+    <t>-0.05--4.16333634234434E-17</t>
+  </si>
+  <si>
+    <t>0-0.05</t>
+  </si>
+  <si>
+    <t>0.05-0.1</t>
+  </si>
+  <si>
+    <t>0.1-0.15</t>
+  </si>
+  <si>
+    <t>0.15-0.2</t>
+  </si>
+  <si>
+    <t>0.2-0.25</t>
+  </si>
+  <si>
+    <t>0.25-0.3</t>
+  </si>
+  <si>
+    <t>0.3-0.35</t>
+  </si>
+  <si>
+    <t>0.35-0.4</t>
+  </si>
+  <si>
+    <t>0.4-0.45</t>
+  </si>
+  <si>
+    <t>0.45-0.5</t>
+  </si>
+  <si>
+    <t>0.5-0.55</t>
+  </si>
+  <si>
+    <t>0.55-0.6</t>
+  </si>
+  <si>
+    <t>0.6-0.65</t>
+  </si>
+  <si>
+    <t>0.65-0.7</t>
+  </si>
+  <si>
+    <t>0.7-0.75</t>
+  </si>
+  <si>
+    <t>0.75-0.8</t>
+  </si>
+  <si>
+    <t>0.8-0.85</t>
+  </si>
+  <si>
+    <t>0.85-0.9</t>
+  </si>
+  <si>
+    <t>-1.07887733--1.02887733</t>
+  </si>
+  <si>
+    <t>-0.97887733--0.92887733</t>
+  </si>
+  <si>
+    <t>-0.87887733--0.82887733</t>
+  </si>
+  <si>
+    <t>-0.82887733--0.77887733</t>
+  </si>
+  <si>
+    <t>-0.77887733--0.72887733</t>
+  </si>
+  <si>
+    <t>-0.72887733--0.67887733</t>
+  </si>
+  <si>
+    <t>-0.62887733--0.57887733</t>
+  </si>
+  <si>
+    <t>-0.57887733--0.52887733</t>
+  </si>
+  <si>
+    <t>-0.52887733--0.47887733</t>
+  </si>
+  <si>
+    <t>-0.47887733--0.42887733</t>
+  </si>
+  <si>
+    <t>-0.42887733--0.37887733</t>
+  </si>
+  <si>
+    <t>-0.37887733--0.32887733</t>
+  </si>
+  <si>
+    <t>-0.32887733--0.27887733</t>
+  </si>
+  <si>
+    <t>-0.27887733--0.22887733</t>
+  </si>
+  <si>
+    <t>-0.22887733--0.17887733</t>
+  </si>
+  <si>
+    <t>-0.17887733--0.12887733</t>
+  </si>
+  <si>
+    <t>-0.12887733--0.07887733</t>
+  </si>
+  <si>
+    <t>-0.0788773300000001--0.0288773300000001</t>
+  </si>
+  <si>
+    <t>-0.02887733-0.02112267</t>
+  </si>
+  <si>
+    <t>0.02112267-0.07112267</t>
+  </si>
+  <si>
+    <t>0.0711226700000001-0.12112267</t>
+  </si>
+  <si>
+    <t>0.12112267-0.17112267</t>
+  </si>
+  <si>
+    <t>0.17112267-0.22112267</t>
+  </si>
+  <si>
+    <t>0.22112267-0.27112267</t>
+  </si>
+  <si>
+    <t>0.27112267-0.32112267</t>
+  </si>
+  <si>
+    <t>0.32112267-0.37112267</t>
+  </si>
+  <si>
+    <t>0.37112267-0.42112267</t>
+  </si>
+  <si>
+    <t>0.42112267-0.47112267</t>
+  </si>
+  <si>
+    <t>0.47112267-0.52112267</t>
+  </si>
+  <si>
+    <t>0.52112267-0.57112267</t>
+  </si>
+  <si>
+    <t>0.57112267-0.62112267</t>
+  </si>
+  <si>
+    <t>0.62112267-0.67112267</t>
+  </si>
+  <si>
+    <t>0.67112267-0.72112267</t>
+  </si>
+  <si>
+    <t>0.72112267-0.77112267</t>
+  </si>
+  <si>
+    <t>0.82112267-0.87112267</t>
+  </si>
+  <si>
+    <t>0.87112267-0.92112267</t>
+  </si>
+  <si>
+    <t>1.17112267-1.22112267</t>
+  </si>
+  <si>
+    <t>Count of fc-fc</t>
+  </si>
+  <si>
+    <t>1.15-1.2</t>
+  </si>
+  <si>
+    <t>-1.1--1.075</t>
+  </si>
+  <si>
+    <t>-0.975--0.95</t>
+  </si>
+  <si>
+    <t>-0.875--0.85</t>
+  </si>
+  <si>
+    <t>-0.825--0.8</t>
+  </si>
+  <si>
+    <t>-0.75--0.725</t>
+  </si>
+  <si>
+    <t>-0.7--0.675</t>
+  </si>
+  <si>
+    <t>-0.65--0.625</t>
+  </si>
+  <si>
+    <t>-0.575--0.55</t>
+  </si>
+  <si>
+    <t>-0.55--0.525</t>
+  </si>
+  <si>
+    <t>-0.525--0.5</t>
+  </si>
+  <si>
+    <t>-0.5--0.475</t>
+  </si>
+  <si>
+    <t>-0.475--0.45</t>
+  </si>
+  <si>
+    <t>-0.45--0.425</t>
+  </si>
+  <si>
+    <t>-0.425--0.4</t>
+  </si>
+  <si>
+    <t>-0.4--0.375</t>
+  </si>
+  <si>
+    <t>-0.375--0.35</t>
+  </si>
+  <si>
+    <t>-0.35--0.325</t>
+  </si>
+  <si>
+    <t>-0.325--0.3</t>
+  </si>
+  <si>
+    <t>-0.3--0.275</t>
+  </si>
+  <si>
+    <t>-0.275--0.25</t>
+  </si>
+  <si>
+    <t>-0.225--0.2</t>
+  </si>
+  <si>
+    <t>-0.175--0.15</t>
+  </si>
+  <si>
+    <t>-0.15--0.125</t>
+  </si>
+  <si>
+    <t>-0.125--0.1</t>
+  </si>
+  <si>
+    <t>-0.1--0.0750000000000001</t>
+  </si>
+  <si>
+    <t>-0.075--0.05</t>
+  </si>
+  <si>
+    <t>-0.05--0.025</t>
+  </si>
+  <si>
+    <t>-0.0250000000000001--1.31838984174237E-16</t>
+  </si>
+  <si>
+    <t>0-0.025</t>
+  </si>
+  <si>
+    <t>0.0249999999999999-0.0499999999999999</t>
+  </si>
+  <si>
+    <t>0.05-0.075</t>
+  </si>
+  <si>
+    <t>0.075-0.1</t>
+  </si>
+  <si>
+    <t>0.1-0.125</t>
+  </si>
+  <si>
+    <t>0.125-0.15</t>
+  </si>
+  <si>
+    <t>0.15-0.175</t>
+  </si>
+  <si>
+    <t>0.225-0.25</t>
+  </si>
+  <si>
+    <t>0.275-0.3</t>
+  </si>
+  <si>
+    <t>0.325-0.35</t>
+  </si>
+  <si>
+    <t>0.375-0.4</t>
+  </si>
+  <si>
+    <t>0.4-0.425</t>
+  </si>
+  <si>
+    <t>0.425-0.45</t>
+  </si>
+  <si>
+    <t>0.45-0.475</t>
+  </si>
+  <si>
+    <t>0.475-0.5</t>
+  </si>
+  <si>
+    <t>0.525-0.55</t>
+  </si>
+  <si>
+    <t>0.55-0.575</t>
+  </si>
+  <si>
+    <t>0.6-0.625</t>
+  </si>
+  <si>
+    <t>0.625-0.65</t>
+  </si>
+  <si>
+    <t>0.65-0.675</t>
+  </si>
+  <si>
+    <t>0.675-0.7</t>
+  </si>
+  <si>
+    <t>0.7-0.725</t>
+  </si>
+  <si>
+    <t>0.725-0.75</t>
+  </si>
+  <si>
+    <t>0.75-0.775</t>
+  </si>
+  <si>
+    <t>0.825-0.85</t>
+  </si>
+  <si>
+    <t>0.875-0.9</t>
+  </si>
+  <si>
+    <t>1.175-1.2</t>
   </si>
 </sst>
 </file>
@@ -362,9 +767,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -775,11 +1185,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:axId val="205545216"/>
-        <c:axId val="205545776"/>
+        <c:axId val="231518408"/>
+        <c:axId val="231526360"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="205545216"/>
+        <c:axId val="231518408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -822,7 +1232,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="205545776"/>
+        <c:crossAx val="231526360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -830,7 +1240,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="205545776"/>
+        <c:axId val="231526360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -881,7 +1291,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="205545216"/>
+        <c:crossAx val="231518408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1316,11 +1726,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="257775408"/>
-        <c:axId val="257773728"/>
+        <c:axId val="231523224"/>
+        <c:axId val="231525968"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="257775408"/>
+        <c:axId val="231523224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1363,7 +1773,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="257773728"/>
+        <c:crossAx val="231525968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1371,7 +1781,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="257773728"/>
+        <c:axId val="231525968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1422,7 +1832,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="257775408"/>
+        <c:crossAx val="231523224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2624,6 +3034,812 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="harle_000" refreshedDate="42624.805155092596" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="95">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="G1:G96" sheet="Sheet1"/>
+  </cacheSource>
+  <cacheFields count="1">
+    <cacheField name="fc-fc" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-1.0788773300000001" maxValue="1.178970549" count="95">
+        <n v="-1.0788773300000001"/>
+        <n v="-0.96686033099999991"/>
+        <n v="-0.96121769800000001"/>
+        <n v="-0.86647752300000003"/>
+        <n v="-0.82132180799999999"/>
+        <n v="-0.74530306000000002"/>
+        <n v="-0.69442926599999999"/>
+        <n v="-0.68679411200000007"/>
+        <n v="-0.62734066399999999"/>
+        <n v="-0.57271289800000003"/>
+        <n v="-0.55366148500000001"/>
+        <n v="-0.53005252000000003"/>
+        <n v="-0.525355605"/>
+        <n v="-0.51094339600000005"/>
+        <n v="-0.50996328099999999"/>
+        <n v="-0.48496756100000005"/>
+        <n v="-0.480883587"/>
+        <n v="-0.45776399700000003"/>
+        <n v="-0.45277708999999999"/>
+        <n v="-0.44367206999999997"/>
+        <n v="-0.42464007800000003"/>
+        <n v="-0.4147657050000001"/>
+        <n v="-0.403301358"/>
+        <n v="-0.38711187800000002"/>
+        <n v="-0.38626155200000001"/>
+        <n v="-0.37821630700000008"/>
+        <n v="-0.370168689"/>
+        <n v="-0.34777180899999999"/>
+        <n v="-0.31340579800000001"/>
+        <n v="-0.29950746299999997"/>
+        <n v="-0.26012270999999987"/>
+        <n v="-0.25509517900000001"/>
+        <n v="-0.25339141399999998"/>
+        <n v="-0.21806029400000002"/>
+        <n v="-0.16011224699999999"/>
+        <n v="-0.14365918"/>
+        <n v="-0.12774120599999994"/>
+        <n v="-0.10560790899999999"/>
+        <n v="-9.7481456000000022E-2"/>
+        <n v="-9.3199967999999994E-2"/>
+        <n v="-7.2484027000000006E-2"/>
+        <n v="-5.572923199999999E-2"/>
+        <n v="-5.3155238999999993E-2"/>
+        <n v="-5.2563092999999991E-2"/>
+        <n v="-3.6404852000000001E-2"/>
+        <n v="-2.2562885999999997E-2"/>
+        <n v="2.4441530000000045E-3"/>
+        <n v="1.3871756000000013E-2"/>
+        <n v="2.7970545000000013E-2"/>
+        <n v="3.7754113999999991E-2"/>
+        <n v="6.0833671999999998E-2"/>
+        <n v="7.9395872000000006E-2"/>
+        <n v="9.8948546999999998E-2"/>
+        <n v="0.10039513700000002"/>
+        <n v="0.10126441400000002"/>
+        <n v="0.110112923"/>
+        <n v="0.11502519300000003"/>
+        <n v="0.11682826499999999"/>
+        <n v="0.139325225"/>
+        <n v="0.14533732200000005"/>
+        <n v="0.156101196"/>
+        <n v="0.15759621400000001"/>
+        <n v="0.17313677100000002"/>
+        <n v="0.17334493200000006"/>
+        <n v="0.23511245200000003"/>
+        <n v="0.28774563699999994"/>
+        <n v="0.291883636"/>
+        <n v="0.33638363900000001"/>
+        <n v="0.34213981000000004"/>
+        <n v="0.34740137500000001"/>
+        <n v="0.34976460199999998"/>
+        <n v="0.37589916099999998"/>
+        <n v="0.377342026"/>
+        <n v="0.39467186200000004"/>
+        <n v="0.40479491500000003"/>
+        <n v="0.407698738"/>
+        <n v="0.42735324900000005"/>
+        <n v="0.45020549200000004"/>
+        <n v="0.47149108200000001"/>
+        <n v="0.48537711400000005"/>
+        <n v="0.52935951999999997"/>
+        <n v="0.56681797199999995"/>
+        <n v="0.60795796899999999"/>
+        <n v="0.62582068600000007"/>
+        <n v="0.63723193300000003"/>
+        <n v="0.67366489000000007"/>
+        <n v="0.69120481200000006"/>
+        <n v="0.70430410200000004"/>
+        <n v="0.73905805199999997"/>
+        <n v="0.77031780000000005"/>
+        <n v="0.83048613500000001"/>
+        <n v="0.84190310099999999"/>
+        <n v="0.889475401"/>
+        <n v="0.89324476800000008"/>
+        <n v="1.178970549"/>
+      </sharedItems>
+      <fieldGroup base="0">
+        <rangePr autoStart="0" autoEnd="0" startNum="-1.1000000000000001" endNum="1.2" groupInterval="2.5000000000000001E-2"/>
+        <groupItems count="94">
+          <s v="&lt;-1.1"/>
+          <s v="-1.1--1.075"/>
+          <s v="-1.075--1.05"/>
+          <s v="-1.05--1.025"/>
+          <s v="-1.025--1"/>
+          <s v="-1--0.975"/>
+          <s v="-0.975--0.95"/>
+          <s v="-0.95--0.925"/>
+          <s v="-0.925--0.9"/>
+          <s v="-0.9--0.875"/>
+          <s v="-0.875--0.85"/>
+          <s v="-0.85--0.825"/>
+          <s v="-0.825--0.8"/>
+          <s v="-0.8--0.775"/>
+          <s v="-0.775--0.75"/>
+          <s v="-0.75--0.725"/>
+          <s v="-0.725--0.7"/>
+          <s v="-0.7--0.675"/>
+          <s v="-0.675--0.65"/>
+          <s v="-0.65--0.625"/>
+          <s v="-0.625--0.6"/>
+          <s v="-0.6--0.575"/>
+          <s v="-0.575--0.55"/>
+          <s v="-0.55--0.525"/>
+          <s v="-0.525--0.5"/>
+          <s v="-0.5--0.475"/>
+          <s v="-0.475--0.45"/>
+          <s v="-0.45--0.425"/>
+          <s v="-0.425--0.4"/>
+          <s v="-0.4--0.375"/>
+          <s v="-0.375--0.35"/>
+          <s v="-0.35--0.325"/>
+          <s v="-0.325--0.3"/>
+          <s v="-0.3--0.275"/>
+          <s v="-0.275--0.25"/>
+          <s v="-0.25--0.225"/>
+          <s v="-0.225--0.2"/>
+          <s v="-0.2--0.175"/>
+          <s v="-0.175--0.15"/>
+          <s v="-0.15--0.125"/>
+          <s v="-0.125--0.1"/>
+          <s v="-0.1--0.0750000000000001"/>
+          <s v="-0.075--0.05"/>
+          <s v="-0.05--0.025"/>
+          <s v="-0.0250000000000001--1.31838984174237E-16"/>
+          <s v="0-0.025"/>
+          <s v="0.0249999999999999-0.0499999999999999"/>
+          <s v="0.05-0.075"/>
+          <s v="0.075-0.1"/>
+          <s v="0.1-0.125"/>
+          <s v="0.125-0.15"/>
+          <s v="0.15-0.175"/>
+          <s v="0.175-0.2"/>
+          <s v="0.2-0.225"/>
+          <s v="0.225-0.25"/>
+          <s v="0.25-0.275"/>
+          <s v="0.275-0.3"/>
+          <s v="0.3-0.325"/>
+          <s v="0.325-0.35"/>
+          <s v="0.35-0.375"/>
+          <s v="0.375-0.4"/>
+          <s v="0.4-0.425"/>
+          <s v="0.425-0.45"/>
+          <s v="0.45-0.475"/>
+          <s v="0.475-0.5"/>
+          <s v="0.5-0.525"/>
+          <s v="0.525-0.55"/>
+          <s v="0.55-0.575"/>
+          <s v="0.575-0.6"/>
+          <s v="0.6-0.625"/>
+          <s v="0.625-0.65"/>
+          <s v="0.65-0.675"/>
+          <s v="0.675-0.7"/>
+          <s v="0.7-0.725"/>
+          <s v="0.725-0.75"/>
+          <s v="0.75-0.775"/>
+          <s v="0.775-0.8"/>
+          <s v="0.8-0.825"/>
+          <s v="0.825-0.85"/>
+          <s v="0.85-0.875"/>
+          <s v="0.875-0.9"/>
+          <s v="0.9-0.925"/>
+          <s v="0.925-0.95"/>
+          <s v="0.95-0.975"/>
+          <s v="0.975-1"/>
+          <s v="1-1.025"/>
+          <s v="1.025-1.05"/>
+          <s v="1.05-1.075"/>
+          <s v="1.075-1.1"/>
+          <s v="1.1-1.125"/>
+          <s v="1.125-1.15"/>
+          <s v="1.15-1.175"/>
+          <s v="1.175-1.2"/>
+          <s v="&gt;1.2"/>
+        </groupItems>
+      </fieldGroup>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="95">
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="15"/>
+  </r>
+  <r>
+    <x v="16"/>
+  </r>
+  <r>
+    <x v="17"/>
+  </r>
+  <r>
+    <x v="18"/>
+  </r>
+  <r>
+    <x v="19"/>
+  </r>
+  <r>
+    <x v="20"/>
+  </r>
+  <r>
+    <x v="21"/>
+  </r>
+  <r>
+    <x v="22"/>
+  </r>
+  <r>
+    <x v="23"/>
+  </r>
+  <r>
+    <x v="24"/>
+  </r>
+  <r>
+    <x v="25"/>
+  </r>
+  <r>
+    <x v="26"/>
+  </r>
+  <r>
+    <x v="27"/>
+  </r>
+  <r>
+    <x v="28"/>
+  </r>
+  <r>
+    <x v="29"/>
+  </r>
+  <r>
+    <x v="30"/>
+  </r>
+  <r>
+    <x v="31"/>
+  </r>
+  <r>
+    <x v="32"/>
+  </r>
+  <r>
+    <x v="33"/>
+  </r>
+  <r>
+    <x v="34"/>
+  </r>
+  <r>
+    <x v="35"/>
+  </r>
+  <r>
+    <x v="36"/>
+  </r>
+  <r>
+    <x v="37"/>
+  </r>
+  <r>
+    <x v="38"/>
+  </r>
+  <r>
+    <x v="39"/>
+  </r>
+  <r>
+    <x v="40"/>
+  </r>
+  <r>
+    <x v="41"/>
+  </r>
+  <r>
+    <x v="42"/>
+  </r>
+  <r>
+    <x v="43"/>
+  </r>
+  <r>
+    <x v="44"/>
+  </r>
+  <r>
+    <x v="45"/>
+  </r>
+  <r>
+    <x v="46"/>
+  </r>
+  <r>
+    <x v="47"/>
+  </r>
+  <r>
+    <x v="48"/>
+  </r>
+  <r>
+    <x v="49"/>
+  </r>
+  <r>
+    <x v="50"/>
+  </r>
+  <r>
+    <x v="51"/>
+  </r>
+  <r>
+    <x v="52"/>
+  </r>
+  <r>
+    <x v="53"/>
+  </r>
+  <r>
+    <x v="54"/>
+  </r>
+  <r>
+    <x v="55"/>
+  </r>
+  <r>
+    <x v="56"/>
+  </r>
+  <r>
+    <x v="57"/>
+  </r>
+  <r>
+    <x v="58"/>
+  </r>
+  <r>
+    <x v="59"/>
+  </r>
+  <r>
+    <x v="60"/>
+  </r>
+  <r>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="62"/>
+  </r>
+  <r>
+    <x v="63"/>
+  </r>
+  <r>
+    <x v="64"/>
+  </r>
+  <r>
+    <x v="65"/>
+  </r>
+  <r>
+    <x v="66"/>
+  </r>
+  <r>
+    <x v="67"/>
+  </r>
+  <r>
+    <x v="68"/>
+  </r>
+  <r>
+    <x v="69"/>
+  </r>
+  <r>
+    <x v="70"/>
+  </r>
+  <r>
+    <x v="71"/>
+  </r>
+  <r>
+    <x v="72"/>
+  </r>
+  <r>
+    <x v="73"/>
+  </r>
+  <r>
+    <x v="74"/>
+  </r>
+  <r>
+    <x v="75"/>
+  </r>
+  <r>
+    <x v="76"/>
+  </r>
+  <r>
+    <x v="77"/>
+  </r>
+  <r>
+    <x v="78"/>
+  </r>
+  <r>
+    <x v="79"/>
+  </r>
+  <r>
+    <x v="80"/>
+  </r>
+  <r>
+    <x v="81"/>
+  </r>
+  <r>
+    <x v="82"/>
+  </r>
+  <r>
+    <x v="83"/>
+  </r>
+  <r>
+    <x v="84"/>
+  </r>
+  <r>
+    <x v="85"/>
+  </r>
+  <r>
+    <x v="86"/>
+  </r>
+  <r>
+    <x v="87"/>
+  </r>
+  <r>
+    <x v="88"/>
+  </r>
+  <r>
+    <x v="89"/>
+  </r>
+  <r>
+    <x v="90"/>
+  </r>
+  <r>
+    <x v="91"/>
+  </r>
+  <r>
+    <x v="92"/>
+  </r>
+  <r>
+    <x v="93"/>
+  </r>
+  <r>
+    <x v="94"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="A3:B59" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="1">
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="95">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="80"/>
+        <item x="81"/>
+        <item x="82"/>
+        <item x="83"/>
+        <item x="84"/>
+        <item x="85"/>
+        <item x="86"/>
+        <item x="87"/>
+        <item x="88"/>
+        <item x="89"/>
+        <item x="90"/>
+        <item x="91"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="56">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i>
+      <x v="33"/>
+    </i>
+    <i>
+      <x v="34"/>
+    </i>
+    <i>
+      <x v="36"/>
+    </i>
+    <i>
+      <x v="38"/>
+    </i>
+    <i>
+      <x v="39"/>
+    </i>
+    <i>
+      <x v="40"/>
+    </i>
+    <i>
+      <x v="41"/>
+    </i>
+    <i>
+      <x v="42"/>
+    </i>
+    <i>
+      <x v="43"/>
+    </i>
+    <i>
+      <x v="44"/>
+    </i>
+    <i>
+      <x v="45"/>
+    </i>
+    <i>
+      <x v="46"/>
+    </i>
+    <i>
+      <x v="47"/>
+    </i>
+    <i>
+      <x v="48"/>
+    </i>
+    <i>
+      <x v="49"/>
+    </i>
+    <i>
+      <x v="50"/>
+    </i>
+    <i>
+      <x v="51"/>
+    </i>
+    <i>
+      <x v="54"/>
+    </i>
+    <i>
+      <x v="56"/>
+    </i>
+    <i>
+      <x v="58"/>
+    </i>
+    <i>
+      <x v="60"/>
+    </i>
+    <i>
+      <x v="61"/>
+    </i>
+    <i>
+      <x v="62"/>
+    </i>
+    <i>
+      <x v="63"/>
+    </i>
+    <i>
+      <x v="64"/>
+    </i>
+    <i>
+      <x v="66"/>
+    </i>
+    <i>
+      <x v="67"/>
+    </i>
+    <i>
+      <x v="69"/>
+    </i>
+    <i>
+      <x v="70"/>
+    </i>
+    <i>
+      <x v="71"/>
+    </i>
+    <i>
+      <x v="72"/>
+    </i>
+    <i>
+      <x v="73"/>
+    </i>
+    <i>
+      <x v="74"/>
+    </i>
+    <i>
+      <x v="75"/>
+    </i>
+    <i>
+      <x v="78"/>
+    </i>
+    <i>
+      <x v="80"/>
+    </i>
+    <i>
+      <x v="92"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of fc-fc" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="1" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2887,10 +4103,1602 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:D59"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B58" sqref="B4:B58"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="41" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <f>-1.1</f>
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="D4" s="2">
+        <v>-1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B5" s="2">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <f>C4+0.025</f>
+        <v>-1.0750000000000002</v>
+      </c>
+      <c r="D5" s="2">
+        <v>-0.97499999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <f t="shared" ref="C6:C58" si="0">C5+0.025</f>
+        <v>-1.0500000000000003</v>
+      </c>
+      <c r="D6" s="2">
+        <v>-0.875</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>-1.0250000000000004</v>
+      </c>
+      <c r="D7" s="2">
+        <v>-0.82499999999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>-1.0000000000000004</v>
+      </c>
+      <c r="D8" s="2">
+        <v>-0.75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B9" s="2">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>-0.97500000000000042</v>
+      </c>
+      <c r="D9" s="2">
+        <v>-0.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>-0.9500000000000004</v>
+      </c>
+      <c r="D10" s="2">
+        <v>-0.65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B11" s="2">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>-0.92500000000000038</v>
+      </c>
+      <c r="D11" s="2">
+        <v>-0.57499999999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="B12" s="2">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>-0.90000000000000036</v>
+      </c>
+      <c r="D12" s="2">
+        <v>-0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="B13" s="2">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>-0.87500000000000033</v>
+      </c>
+      <c r="D13" s="2">
+        <v>-0.52500000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B14" s="2">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>-0.85000000000000031</v>
+      </c>
+      <c r="D14" s="2">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="B15" s="2">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>-0.82500000000000029</v>
+      </c>
+      <c r="D15" s="2">
+        <f>D14+0.025</f>
+        <v>-0.47499999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B16" s="2">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>-0.80000000000000027</v>
+      </c>
+      <c r="D16" s="2">
+        <f t="shared" ref="D16:D58" si="1">D15+0.025</f>
+        <v>-0.44999999999999996</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B17" s="2">
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>-0.77500000000000024</v>
+      </c>
+      <c r="D17" s="2">
+        <f t="shared" si="1"/>
+        <v>-0.42499999999999993</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="B18" s="2">
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>-0.75000000000000022</v>
+      </c>
+      <c r="D18" s="2">
+        <f t="shared" si="1"/>
+        <v>-0.39999999999999991</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B19" s="2">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>-0.7250000000000002</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" si="1"/>
+        <v>-0.37499999999999989</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B20" s="2">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>-0.70000000000000018</v>
+      </c>
+      <c r="D20" s="2">
+        <f t="shared" si="1"/>
+        <v>-0.34999999999999987</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="B21" s="2">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>-0.67500000000000016</v>
+      </c>
+      <c r="D21" s="2">
+        <f t="shared" si="1"/>
+        <v>-0.32499999999999984</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="B22" s="2">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>-0.65000000000000013</v>
+      </c>
+      <c r="D22" s="2">
+        <f t="shared" si="1"/>
+        <v>-0.29999999999999982</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="B23" s="2">
+        <v>3</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>-0.62500000000000011</v>
+      </c>
+      <c r="D23" s="2">
+        <f t="shared" si="1"/>
+        <v>-0.2749999999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="B24" s="2">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>-0.60000000000000009</v>
+      </c>
+      <c r="D24" s="2">
+        <f>-0.225</f>
+        <v>-0.22500000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B25" s="2">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>-0.57500000000000007</v>
+      </c>
+      <c r="D25" s="2">
+        <f>-0.175</f>
+        <v>-0.17499999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B26" s="2">
+        <v>2</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>-0.55000000000000004</v>
+      </c>
+      <c r="D26" s="2">
+        <f t="shared" si="1"/>
+        <v>-0.15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B27" s="2">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>-0.52500000000000002</v>
+      </c>
+      <c r="D27" s="2">
+        <f t="shared" si="1"/>
+        <v>-0.125</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B28" s="2">
+        <v>2</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>-0.5</v>
+      </c>
+      <c r="D28" s="2">
+        <f t="shared" si="1"/>
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="B29" s="2">
+        <v>4</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>-0.47499999999999998</v>
+      </c>
+      <c r="D29" s="2">
+        <f t="shared" si="1"/>
+        <v>-7.5000000000000011E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="B30" s="2">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>-0.44999999999999996</v>
+      </c>
+      <c r="D30" s="2">
+        <f t="shared" si="1"/>
+        <v>-5.000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B31" s="2">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="0"/>
+        <v>-0.42499999999999993</v>
+      </c>
+      <c r="D31" s="2">
+        <f t="shared" si="1"/>
+        <v>-2.5000000000000008E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="B32" s="2">
+        <v>2</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="0"/>
+        <v>-0.39999999999999991</v>
+      </c>
+      <c r="D32" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="B33" s="2">
+        <v>2</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="0"/>
+        <v>-0.37499999999999989</v>
+      </c>
+      <c r="D33" s="2">
+        <f t="shared" si="1"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B34" s="2">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="0"/>
+        <v>-0.34999999999999987</v>
+      </c>
+      <c r="D34" s="2">
+        <f t="shared" si="1"/>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="B35" s="2">
+        <v>2</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="0"/>
+        <v>-0.32499999999999984</v>
+      </c>
+      <c r="D35" s="2">
+        <f t="shared" si="1"/>
+        <v>7.5000000000000011E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B36" s="2">
+        <v>5</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="0"/>
+        <v>-0.29999999999999982</v>
+      </c>
+      <c r="D36" s="2">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="B37" s="2">
+        <v>2</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="0"/>
+        <v>-0.2749999999999998</v>
+      </c>
+      <c r="D37" s="2">
+        <f t="shared" si="1"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="B38" s="2">
+        <v>4</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="0"/>
+        <v>-0.24999999999999981</v>
+      </c>
+      <c r="D38" s="2">
+        <f t="shared" si="1"/>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="B39" s="2">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="0"/>
+        <v>-0.22499999999999981</v>
+      </c>
+      <c r="D39" s="2">
+        <f>0.225</f>
+        <v>0.22500000000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="B40" s="2">
+        <v>2</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="0"/>
+        <v>-0.19999999999999982</v>
+      </c>
+      <c r="D40" s="2">
+        <f>0.275</f>
+        <v>0.27500000000000002</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="B41" s="2">
+        <v>4</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="0"/>
+        <v>-0.17499999999999982</v>
+      </c>
+      <c r="D41" s="2">
+        <f>0.325</f>
+        <v>0.32500000000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="B42" s="2">
+        <v>3</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="0"/>
+        <v>-0.14999999999999983</v>
+      </c>
+      <c r="D42" s="2">
+        <f>0.375</f>
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="B43" s="2">
+        <v>2</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="0"/>
+        <v>-0.12499999999999983</v>
+      </c>
+      <c r="D43" s="2">
+        <f t="shared" si="1"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="B44" s="2">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="0"/>
+        <v>-9.9999999999999839E-2</v>
+      </c>
+      <c r="D44" s="2">
+        <f t="shared" si="1"/>
+        <v>0.42500000000000004</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="B45" s="2">
+        <v>2</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="0"/>
+        <v>-7.4999999999999845E-2</v>
+      </c>
+      <c r="D45" s="2">
+        <f t="shared" si="1"/>
+        <v>0.45000000000000007</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B46" s="2">
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="0"/>
+        <v>-4.9999999999999843E-2</v>
+      </c>
+      <c r="D46" s="2">
+        <f t="shared" si="1"/>
+        <v>0.47500000000000009</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B47" s="2">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="0"/>
+        <v>-2.4999999999999842E-2</v>
+      </c>
+      <c r="D47" s="2">
+        <v>0.52500000000000002</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="B48" s="2">
+        <v>1</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="0"/>
+        <v>1.5959455978986625E-16</v>
+      </c>
+      <c r="D48" s="2">
+        <f t="shared" si="1"/>
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="B49" s="2">
+        <v>1</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="0"/>
+        <v>2.5000000000000161E-2</v>
+      </c>
+      <c r="D49" s="2">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="B50" s="2">
+        <v>2</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="0"/>
+        <v>5.0000000000000162E-2</v>
+      </c>
+      <c r="D50" s="2">
+        <f t="shared" si="1"/>
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="B51" s="2">
+        <v>1</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="0"/>
+        <v>7.5000000000000164E-2</v>
+      </c>
+      <c r="D51" s="2">
+        <f t="shared" si="1"/>
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B52" s="2">
+        <v>1</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="0"/>
+        <v>0.10000000000000017</v>
+      </c>
+      <c r="D52" s="2">
+        <f t="shared" si="1"/>
+        <v>0.67500000000000004</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="B53" s="2">
+        <v>1</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="0"/>
+        <v>0.12500000000000017</v>
+      </c>
+      <c r="D53" s="2">
+        <f t="shared" si="1"/>
+        <v>0.70000000000000007</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="B54" s="2">
+        <v>1</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="0"/>
+        <v>0.15000000000000016</v>
+      </c>
+      <c r="D54" s="2">
+        <f t="shared" si="1"/>
+        <v>0.72500000000000009</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="B55" s="2">
+        <v>1</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="0"/>
+        <v>0.17500000000000016</v>
+      </c>
+      <c r="D55" s="2">
+        <f t="shared" si="1"/>
+        <v>0.75000000000000011</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="B56" s="2">
+        <v>2</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="0"/>
+        <v>0.20000000000000015</v>
+      </c>
+      <c r="D56" s="2">
+        <v>0.82499999999999996</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="B57" s="2">
+        <v>2</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="0"/>
+        <v>0.22500000000000014</v>
+      </c>
+      <c r="D57" s="2">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="B58" s="2">
+        <v>1</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="0"/>
+        <v>0.25000000000000017</v>
+      </c>
+      <c r="D58" s="2">
+        <v>1.175</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B59" s="2">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D47"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D47" sqref="C1:D47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="2">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <f>-1.1</f>
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="D1" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <f>C1+0.05</f>
+        <v>-1.05</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <f>C2+0.05</f>
+        <v>-1</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:C38" si="0">C3+0.05</f>
+        <v>-0.95</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>-0.89999999999999991</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>-0.84999999999999987</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>-0.79999999999999982</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>-0.74999999999999978</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B9" s="2">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>-0.69999999999999973</v>
+      </c>
+      <c r="D9" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>-0.64999999999999969</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B11" s="2">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>-0.59999999999999964</v>
+      </c>
+      <c r="D11" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B12" s="2">
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>-0.5499999999999996</v>
+      </c>
+      <c r="D12" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B13" s="2">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>-0.49999999999999961</v>
+      </c>
+      <c r="D13" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B14" s="2">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>-0.44999999999999962</v>
+      </c>
+      <c r="D14" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B15" s="2">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>-0.39999999999999963</v>
+      </c>
+      <c r="D15" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B16" s="2">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>-0.34999999999999964</v>
+      </c>
+      <c r="D16" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B17" s="2">
+        <v>4</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>-0.29999999999999966</v>
+      </c>
+      <c r="D17" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B18" s="2">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>-0.24999999999999967</v>
+      </c>
+      <c r="D18" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B19" s="2">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>-0.19999999999999968</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B20" s="2">
+        <v>3</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>-0.14999999999999969</v>
+      </c>
+      <c r="D20" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B21" s="2">
+        <v>6</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>-9.9999999999999686E-2</v>
+      </c>
+      <c r="D21" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B22" s="2">
+        <v>2</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>-4.9999999999999684E-2</v>
+      </c>
+      <c r="D22" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B23" s="2">
+        <v>4</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>3.1918911957973251E-16</v>
+      </c>
+      <c r="D23" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B24" s="2">
+        <v>3</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>5.0000000000000322E-2</v>
+      </c>
+      <c r="D24" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B25" s="2">
+        <v>7</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>0.10000000000000032</v>
+      </c>
+      <c r="D25" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B26" s="2">
+        <v>4</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>0.15000000000000033</v>
+      </c>
+      <c r="D26" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B27" s="2">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>0.20000000000000034</v>
+      </c>
+      <c r="D27" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B28" s="2">
+        <v>2</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>0.25000000000000033</v>
+      </c>
+      <c r="D28" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B29" s="2">
+        <v>4</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>0.30000000000000032</v>
+      </c>
+      <c r="D29" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B30" s="2">
+        <v>3</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>0.35000000000000031</v>
+      </c>
+      <c r="D30" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B31" s="2">
+        <v>3</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="0"/>
+        <v>0.4000000000000003</v>
+      </c>
+      <c r="D31" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B32" s="2">
+        <v>3</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="0"/>
+        <v>0.45000000000000029</v>
+      </c>
+      <c r="D32" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B33" s="2">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="0"/>
+        <v>0.50000000000000033</v>
+      </c>
+      <c r="D33" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B34" s="2">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="0"/>
+        <v>0.55000000000000038</v>
+      </c>
+      <c r="D34" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B35" s="2">
+        <v>3</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="0"/>
+        <v>0.60000000000000042</v>
+      </c>
+      <c r="D35" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B36" s="2">
+        <v>2</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="0"/>
+        <v>0.65000000000000047</v>
+      </c>
+      <c r="D36" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B37" s="2">
+        <v>2</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="0"/>
+        <v>0.70000000000000051</v>
+      </c>
+      <c r="D37" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B38" s="2">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="0"/>
+        <v>0.75000000000000056</v>
+      </c>
+      <c r="D38" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B39" s="2">
+        <v>2</v>
+      </c>
+      <c r="C39">
+        <f>C38+0.05</f>
+        <v>0.8000000000000006</v>
+      </c>
+      <c r="D39" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B40" s="2">
+        <v>2</v>
+      </c>
+      <c r="C40">
+        <f>C39+0.05</f>
+        <v>0.85000000000000064</v>
+      </c>
+      <c r="D40" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B41" s="2">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <f t="shared" ref="C41:C47" si="1">C40+0.05</f>
+        <v>0.90000000000000069</v>
+      </c>
+      <c r="D41" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B42" s="2">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="1"/>
+        <v>0.95000000000000073</v>
+      </c>
+      <c r="D42" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B43" s="2">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="1"/>
+        <v>1.0000000000000007</v>
+      </c>
+      <c r="D43" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B44" s="2">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="1"/>
+        <v>1.0500000000000007</v>
+      </c>
+      <c r="D44" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B45" s="2">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="1"/>
+        <v>1.1000000000000008</v>
+      </c>
+      <c r="D45" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B46" s="2">
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="1"/>
+        <v>1.1500000000000008</v>
+      </c>
+      <c r="D46" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B47" s="2">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="1"/>
+        <v>1.2000000000000008</v>
+      </c>
+      <c r="D47" s="2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G96"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G18"/>
+    <sheetView tabSelected="1" topLeftCell="K28" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5209,4 +8017,351 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1">
+        <v>-1.0788</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D2">
+        <f>-1.0788+0.05</f>
+        <v>-1.0287999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D3">
+        <f>D2+0.05</f>
+        <v>-0.97879999999999989</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D4">
+        <f>D3+0.05</f>
+        <v>-0.92879999999999985</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D5">
+        <f>D4+0.05</f>
+        <v>-0.8787999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D6">
+        <f>D5+0.05</f>
+        <v>-0.82879999999999976</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D7">
+        <f>D6+0.05</f>
+        <v>-0.77879999999999971</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D8">
+        <f>D7+0.05</f>
+        <v>-0.72879999999999967</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D9">
+        <f>D8+0.05</f>
+        <v>-0.67879999999999963</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D10">
+        <f>D9+0.05</f>
+        <v>-0.62879999999999958</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D11">
+        <f>D10+0.05</f>
+        <v>-0.57879999999999954</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D12">
+        <f>D11+0.05</f>
+        <v>-0.52879999999999949</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D13">
+        <f>D12+0.05</f>
+        <v>-0.4787999999999995</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D14">
+        <f t="shared" ref="D14:D37" si="0">D13+0.05</f>
+        <v>-0.42879999999999951</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>-0.37879999999999953</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>-0.32879999999999954</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>-0.27879999999999955</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>-0.22879999999999956</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>-0.17879999999999957</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>-0.12879999999999958</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>-7.8799999999999579E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>-2.8799999999999576E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>2.1200000000000427E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D24">
+        <f>D23+0.05</f>
+        <v>7.120000000000043E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="D25">
+        <f t="shared" ref="D25:D37" si="1">D24+0.05</f>
+        <v>0.12120000000000043</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="1"/>
+        <v>0.17120000000000044</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="1"/>
+        <v>0.22120000000000045</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="1"/>
+        <v>0.27120000000000044</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="1"/>
+        <v>0.32120000000000043</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="1"/>
+        <v>0.37120000000000042</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="1"/>
+        <v>0.42120000000000041</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="1"/>
+        <v>0.4712000000000004</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="1"/>
+        <v>0.52120000000000044</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="1"/>
+        <v>0.57120000000000049</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="D35">
+        <f>D34+0.05</f>
+        <v>0.62120000000000053</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="D36">
+        <f t="shared" ref="D36:D37" si="2">D35+0.05</f>
+        <v>0.67120000000000057</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="2"/>
+        <v>0.72120000000000062</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Data/EXO/DESeq/CELLandEXOchangeMIR.xlsx
+++ b/Data/EXO/DESeq/CELLandEXOchangeMIR.xlsx
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="12" r:id="rId5"/>
+    <pivotCache cacheId="3" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="200">
   <si>
     <t>hsa-let-7b-5p</t>
   </si>
@@ -569,169 +569,67 @@
     <t>1.15-1.2</t>
   </si>
   <si>
-    <t>-1.1--1.075</t>
-  </si>
-  <si>
-    <t>-0.975--0.95</t>
-  </si>
-  <si>
-    <t>-0.875--0.85</t>
-  </si>
-  <si>
-    <t>-0.825--0.8</t>
-  </si>
-  <si>
-    <t>-0.75--0.725</t>
-  </si>
-  <si>
-    <t>-0.7--0.675</t>
-  </si>
-  <si>
-    <t>-0.65--0.625</t>
-  </si>
-  <si>
-    <t>-0.575--0.55</t>
-  </si>
-  <si>
-    <t>-0.55--0.525</t>
-  </si>
-  <si>
-    <t>-0.525--0.5</t>
-  </si>
-  <si>
-    <t>-0.5--0.475</t>
-  </si>
-  <si>
-    <t>-0.475--0.45</t>
-  </si>
-  <si>
-    <t>-0.45--0.425</t>
-  </si>
-  <si>
-    <t>-0.425--0.4</t>
-  </si>
-  <si>
-    <t>-0.4--0.375</t>
-  </si>
-  <si>
-    <t>-0.375--0.35</t>
-  </si>
-  <si>
-    <t>-0.35--0.325</t>
-  </si>
-  <si>
-    <t>-0.325--0.3</t>
-  </si>
-  <si>
-    <t>-0.3--0.275</t>
-  </si>
-  <si>
-    <t>-0.275--0.25</t>
-  </si>
-  <si>
-    <t>-0.225--0.2</t>
-  </si>
-  <si>
-    <t>-0.175--0.15</t>
-  </si>
-  <si>
-    <t>-0.15--0.125</t>
-  </si>
-  <si>
-    <t>-0.125--0.1</t>
-  </si>
-  <si>
-    <t>-0.1--0.0750000000000001</t>
-  </si>
-  <si>
-    <t>-0.075--0.05</t>
-  </si>
-  <si>
-    <t>-0.05--0.025</t>
-  </si>
-  <si>
-    <t>-0.0250000000000001--1.31838984174237E-16</t>
-  </si>
-  <si>
-    <t>0-0.025</t>
-  </si>
-  <si>
-    <t>0.0249999999999999-0.0499999999999999</t>
-  </si>
-  <si>
-    <t>0.05-0.075</t>
-  </si>
-  <si>
-    <t>0.075-0.1</t>
-  </si>
-  <si>
-    <t>0.1-0.125</t>
-  </si>
-  <si>
-    <t>0.125-0.15</t>
-  </si>
-  <si>
-    <t>0.15-0.175</t>
-  </si>
-  <si>
-    <t>0.225-0.25</t>
-  </si>
-  <si>
-    <t>0.275-0.3</t>
-  </si>
-  <si>
-    <t>0.325-0.35</t>
-  </si>
-  <si>
-    <t>0.375-0.4</t>
-  </si>
-  <si>
-    <t>0.4-0.425</t>
-  </si>
-  <si>
-    <t>0.425-0.45</t>
-  </si>
-  <si>
-    <t>0.45-0.475</t>
-  </si>
-  <si>
-    <t>0.475-0.5</t>
-  </si>
-  <si>
-    <t>0.525-0.55</t>
-  </si>
-  <si>
-    <t>0.55-0.575</t>
-  </si>
-  <si>
-    <t>0.6-0.625</t>
-  </si>
-  <si>
-    <t>0.625-0.65</t>
-  </si>
-  <si>
-    <t>0.65-0.675</t>
-  </si>
-  <si>
-    <t>0.675-0.7</t>
-  </si>
-  <si>
-    <t>0.7-0.725</t>
-  </si>
-  <si>
-    <t>0.725-0.75</t>
-  </si>
-  <si>
-    <t>0.75-0.775</t>
-  </si>
-  <si>
-    <t>0.825-0.85</t>
-  </si>
-  <si>
-    <t>0.875-0.9</t>
-  </si>
-  <si>
-    <t>1.175-1.2</t>
+    <t>-1.1--1</t>
+  </si>
+  <si>
+    <t>-1--0.9</t>
+  </si>
+  <si>
+    <t>-0.9--0.8</t>
+  </si>
+  <si>
+    <t>-0.8--0.7</t>
+  </si>
+  <si>
+    <t>-0.7--0.6</t>
+  </si>
+  <si>
+    <t>-0.6--0.5</t>
+  </si>
+  <si>
+    <t>-0.5--0.4</t>
+  </si>
+  <si>
+    <t>-0.4--0.3</t>
+  </si>
+  <si>
+    <t>-0.3--0.2</t>
+  </si>
+  <si>
+    <t>-0.2--0.1</t>
+  </si>
+  <si>
+    <t>-0.0999999999999999-1.38777878078145E-16</t>
+  </si>
+  <si>
+    <t>0-0.1</t>
+  </si>
+  <si>
+    <t>0.1-0.2</t>
+  </si>
+  <si>
+    <t>0.2-0.3</t>
+  </si>
+  <si>
+    <t>0.3-0.4</t>
+  </si>
+  <si>
+    <t>0.4-0.5</t>
+  </si>
+  <si>
+    <t>0.5-0.6</t>
+  </si>
+  <si>
+    <t>0.6-0.7</t>
+  </si>
+  <si>
+    <t>0.7-0.8</t>
+  </si>
+  <si>
+    <t>0.8-0.9</t>
+  </si>
+  <si>
+    <t>1.1-1.2</t>
   </si>
 </sst>
 </file>
@@ -1185,11 +1083,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:axId val="231518408"/>
-        <c:axId val="231526360"/>
+        <c:axId val="192116728"/>
+        <c:axId val="239926872"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="231518408"/>
+        <c:axId val="192116728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1232,7 +1130,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="231526360"/>
+        <c:crossAx val="239926872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1240,7 +1138,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="231526360"/>
+        <c:axId val="239926872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1291,7 +1189,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="231518408"/>
+        <c:crossAx val="192116728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1726,11 +1624,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="231523224"/>
-        <c:axId val="231525968"/>
+        <c:axId val="238183688"/>
+        <c:axId val="238186432"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="231523224"/>
+        <c:axId val="238183688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1773,7 +1671,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="231525968"/>
+        <c:crossAx val="238186432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1781,7 +1679,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="231525968"/>
+        <c:axId val="238186432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1832,7 +1730,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="231523224"/>
+        <c:crossAx val="238183688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3139,102 +3037,40 @@
         <n v="1.178970549"/>
       </sharedItems>
       <fieldGroup base="0">
-        <rangePr autoStart="0" autoEnd="0" startNum="-1.1000000000000001" endNum="1.2" groupInterval="2.5000000000000001E-2"/>
-        <groupItems count="94">
-          <s v="&lt;-1.1"/>
-          <s v="-1.1--1.075"/>
-          <s v="-1.075--1.05"/>
-          <s v="-1.05--1.025"/>
-          <s v="-1.025--1"/>
-          <s v="-1--0.975"/>
-          <s v="-0.975--0.95"/>
-          <s v="-0.95--0.925"/>
-          <s v="-0.925--0.9"/>
-          <s v="-0.9--0.875"/>
-          <s v="-0.875--0.85"/>
-          <s v="-0.85--0.825"/>
-          <s v="-0.825--0.8"/>
-          <s v="-0.8--0.775"/>
-          <s v="-0.775--0.75"/>
-          <s v="-0.75--0.725"/>
-          <s v="-0.725--0.7"/>
-          <s v="-0.7--0.675"/>
-          <s v="-0.675--0.65"/>
-          <s v="-0.65--0.625"/>
-          <s v="-0.625--0.6"/>
-          <s v="-0.6--0.575"/>
-          <s v="-0.575--0.55"/>
-          <s v="-0.55--0.525"/>
-          <s v="-0.525--0.5"/>
-          <s v="-0.5--0.475"/>
-          <s v="-0.475--0.45"/>
-          <s v="-0.45--0.425"/>
-          <s v="-0.425--0.4"/>
-          <s v="-0.4--0.375"/>
-          <s v="-0.375--0.35"/>
-          <s v="-0.35--0.325"/>
-          <s v="-0.325--0.3"/>
-          <s v="-0.3--0.275"/>
-          <s v="-0.275--0.25"/>
-          <s v="-0.25--0.225"/>
-          <s v="-0.225--0.2"/>
-          <s v="-0.2--0.175"/>
-          <s v="-0.175--0.15"/>
-          <s v="-0.15--0.125"/>
-          <s v="-0.125--0.1"/>
-          <s v="-0.1--0.0750000000000001"/>
-          <s v="-0.075--0.05"/>
-          <s v="-0.05--0.025"/>
-          <s v="-0.0250000000000001--1.31838984174237E-16"/>
-          <s v="0-0.025"/>
-          <s v="0.0249999999999999-0.0499999999999999"/>
-          <s v="0.05-0.075"/>
-          <s v="0.075-0.1"/>
-          <s v="0.1-0.125"/>
-          <s v="0.125-0.15"/>
-          <s v="0.15-0.175"/>
-          <s v="0.175-0.2"/>
-          <s v="0.2-0.225"/>
-          <s v="0.225-0.25"/>
-          <s v="0.25-0.275"/>
-          <s v="0.275-0.3"/>
-          <s v="0.3-0.325"/>
-          <s v="0.325-0.35"/>
-          <s v="0.35-0.375"/>
-          <s v="0.375-0.4"/>
-          <s v="0.4-0.425"/>
-          <s v="0.425-0.45"/>
-          <s v="0.45-0.475"/>
-          <s v="0.475-0.5"/>
-          <s v="0.5-0.525"/>
-          <s v="0.525-0.55"/>
-          <s v="0.55-0.575"/>
-          <s v="0.575-0.6"/>
-          <s v="0.6-0.625"/>
-          <s v="0.625-0.65"/>
-          <s v="0.65-0.675"/>
-          <s v="0.675-0.7"/>
-          <s v="0.7-0.725"/>
-          <s v="0.725-0.75"/>
-          <s v="0.75-0.775"/>
-          <s v="0.775-0.8"/>
-          <s v="0.8-0.825"/>
-          <s v="0.825-0.85"/>
-          <s v="0.85-0.875"/>
-          <s v="0.875-0.9"/>
-          <s v="0.9-0.925"/>
-          <s v="0.925-0.95"/>
-          <s v="0.95-0.975"/>
-          <s v="0.975-1"/>
-          <s v="1-1.025"/>
-          <s v="1.025-1.05"/>
-          <s v="1.05-1.075"/>
-          <s v="1.075-1.1"/>
-          <s v="1.1-1.125"/>
-          <s v="1.125-1.15"/>
-          <s v="1.15-1.175"/>
-          <s v="1.175-1.2"/>
-          <s v="&gt;1.2"/>
+        <rangePr autoStart="0" autoEnd="0" startNum="-1.5" endNum="1.5" groupInterval="0.1"/>
+        <groupItems count="32">
+          <s v="&lt;-1.5"/>
+          <s v="-1.5--1.4"/>
+          <s v="-1.4--1.3"/>
+          <s v="-1.3--1.2"/>
+          <s v="-1.2--1.1"/>
+          <s v="-1.1--1"/>
+          <s v="-1--0.9"/>
+          <s v="-0.9--0.8"/>
+          <s v="-0.8--0.7"/>
+          <s v="-0.7--0.6"/>
+          <s v="-0.6--0.5"/>
+          <s v="-0.5--0.4"/>
+          <s v="-0.4--0.3"/>
+          <s v="-0.3--0.2"/>
+          <s v="-0.2--0.1"/>
+          <s v="-0.0999999999999999-1.38777878078145E-16"/>
+          <s v="0-0.1"/>
+          <s v="0.1-0.2"/>
+          <s v="0.2-0.3"/>
+          <s v="0.3-0.4"/>
+          <s v="0.4-0.5"/>
+          <s v="0.5-0.6"/>
+          <s v="0.6-0.7"/>
+          <s v="0.7-0.8"/>
+          <s v="0.8-0.9"/>
+          <s v="0.9-1"/>
+          <s v="1-1.1"/>
+          <s v="1.1-1.2"/>
+          <s v="1.2-1.3"/>
+          <s v="1.3-1.4"/>
+          <s v="1.4-1.5"/>
+          <s v="&gt;1.5"/>
         </groupItems>
       </fieldGroup>
     </cacheField>
@@ -3538,11 +3374,11 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="A3:B59" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="A3:B25" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="1">
     <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="95">
+      <items count="33">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -3575,68 +3411,6 @@
         <item x="29"/>
         <item x="30"/>
         <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item x="58"/>
-        <item x="59"/>
-        <item x="60"/>
-        <item x="61"/>
-        <item x="62"/>
-        <item x="63"/>
-        <item x="64"/>
-        <item x="65"/>
-        <item x="66"/>
-        <item x="67"/>
-        <item x="68"/>
-        <item x="69"/>
-        <item x="70"/>
-        <item x="71"/>
-        <item x="72"/>
-        <item x="73"/>
-        <item x="74"/>
-        <item x="75"/>
-        <item x="76"/>
-        <item x="77"/>
-        <item x="78"/>
-        <item x="79"/>
-        <item x="80"/>
-        <item x="81"/>
-        <item x="82"/>
-        <item x="83"/>
-        <item x="84"/>
-        <item x="85"/>
-        <item x="86"/>
-        <item x="87"/>
-        <item x="88"/>
-        <item x="89"/>
-        <item x="90"/>
-        <item x="91"/>
-        <item x="92"/>
-        <item x="93"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -3644,27 +3418,57 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="56">
+  <rowItems count="22">
     <i>
-      <x v="1"/>
+      <x v="5"/>
     </i>
     <i>
       <x v="6"/>
     </i>
     <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
       <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
     </i>
     <i>
       <x v="12"/>
     </i>
     <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
       <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
     </i>
     <i>
       <x v="17"/>
     </i>
     <i>
+      <x v="18"/>
+    </i>
+    <i>
       <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
     </i>
     <i>
       <x v="22"/>
@@ -3676,139 +3480,7 @@
       <x v="24"/>
     </i>
     <i>
-      <x v="25"/>
-    </i>
-    <i>
-      <x v="26"/>
-    </i>
-    <i>
       <x v="27"/>
-    </i>
-    <i>
-      <x v="28"/>
-    </i>
-    <i>
-      <x v="29"/>
-    </i>
-    <i>
-      <x v="30"/>
-    </i>
-    <i>
-      <x v="31"/>
-    </i>
-    <i>
-      <x v="32"/>
-    </i>
-    <i>
-      <x v="33"/>
-    </i>
-    <i>
-      <x v="34"/>
-    </i>
-    <i>
-      <x v="36"/>
-    </i>
-    <i>
-      <x v="38"/>
-    </i>
-    <i>
-      <x v="39"/>
-    </i>
-    <i>
-      <x v="40"/>
-    </i>
-    <i>
-      <x v="41"/>
-    </i>
-    <i>
-      <x v="42"/>
-    </i>
-    <i>
-      <x v="43"/>
-    </i>
-    <i>
-      <x v="44"/>
-    </i>
-    <i>
-      <x v="45"/>
-    </i>
-    <i>
-      <x v="46"/>
-    </i>
-    <i>
-      <x v="47"/>
-    </i>
-    <i>
-      <x v="48"/>
-    </i>
-    <i>
-      <x v="49"/>
-    </i>
-    <i>
-      <x v="50"/>
-    </i>
-    <i>
-      <x v="51"/>
-    </i>
-    <i>
-      <x v="54"/>
-    </i>
-    <i>
-      <x v="56"/>
-    </i>
-    <i>
-      <x v="58"/>
-    </i>
-    <i>
-      <x v="60"/>
-    </i>
-    <i>
-      <x v="61"/>
-    </i>
-    <i>
-      <x v="62"/>
-    </i>
-    <i>
-      <x v="63"/>
-    </i>
-    <i>
-      <x v="64"/>
-    </i>
-    <i>
-      <x v="66"/>
-    </i>
-    <i>
-      <x v="67"/>
-    </i>
-    <i>
-      <x v="69"/>
-    </i>
-    <i>
-      <x v="70"/>
-    </i>
-    <i>
-      <x v="71"/>
-    </i>
-    <i>
-      <x v="72"/>
-    </i>
-    <i>
-      <x v="73"/>
-    </i>
-    <i>
-      <x v="74"/>
-    </i>
-    <i>
-      <x v="75"/>
-    </i>
-    <i>
-      <x v="78"/>
-    </i>
-    <i>
-      <x v="80"/>
-    </i>
-    <i>
-      <x v="92"/>
     </i>
     <i t="grand">
       <x/>
@@ -4103,15 +3775,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:D59"/>
+  <dimension ref="A3:D58"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B58" sqref="B4:B58"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.28515625" customWidth="1"/>
     <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4131,11 +3803,10 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <f>-1.1</f>
         <v>-1.1000000000000001</v>
       </c>
       <c r="D4" s="2">
-        <v>-1.1000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -4146,11 +3817,10 @@
         <v>2</v>
       </c>
       <c r="C5">
-        <f>C4+0.025</f>
-        <v>-1.0750000000000002</v>
+        <v>-1</v>
       </c>
       <c r="D5" s="2">
-        <v>-0.97499999999999998</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -4158,14 +3828,13 @@
         <v>181</v>
       </c>
       <c r="B6" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <f t="shared" ref="C6:C58" si="0">C5+0.025</f>
-        <v>-1.0500000000000003</v>
+        <v>-0.9</v>
       </c>
       <c r="D6" s="2">
-        <v>-0.875</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -4176,11 +3845,10 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <f t="shared" si="0"/>
-        <v>-1.0250000000000004</v>
+        <v>-0.8</v>
       </c>
       <c r="D7" s="2">
-        <v>-0.82499999999999996</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -4188,14 +3856,13 @@
         <v>183</v>
       </c>
       <c r="B8" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <f t="shared" si="0"/>
-        <v>-1.0000000000000004</v>
+        <v>-0.7</v>
       </c>
       <c r="D8" s="2">
-        <v>-0.75</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -4203,14 +3870,13 @@
         <v>184</v>
       </c>
       <c r="B9" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C9">
-        <f t="shared" si="0"/>
-        <v>-0.97500000000000042</v>
+        <v>-0.6</v>
       </c>
       <c r="D9" s="2">
-        <v>-0.7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -4218,14 +3884,13 @@
         <v>185</v>
       </c>
       <c r="B10" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C10">
-        <f t="shared" si="0"/>
-        <v>-0.9500000000000004</v>
+        <v>-0.499999999999999</v>
       </c>
       <c r="D10" s="2">
-        <v>-0.65</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -4233,14 +3898,13 @@
         <v>186</v>
       </c>
       <c r="B11" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C11">
-        <f t="shared" si="0"/>
-        <v>-0.92500000000000038</v>
+        <v>-0.39999999999999902</v>
       </c>
       <c r="D11" s="2">
-        <v>-0.57499999999999996</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -4248,14 +3912,13 @@
         <v>187</v>
       </c>
       <c r="B12" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C12">
-        <f t="shared" si="0"/>
-        <v>-0.90000000000000036</v>
+        <v>-0.29999999999999899</v>
       </c>
       <c r="D12" s="2">
-        <v>-0.55000000000000004</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -4263,14 +3926,13 @@
         <v>188</v>
       </c>
       <c r="B13" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C13">
-        <f t="shared" si="0"/>
-        <v>-0.87500000000000033</v>
+        <v>-0.19999999999999901</v>
       </c>
       <c r="D13" s="2">
-        <v>-0.52500000000000002</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -4278,14 +3940,13 @@
         <v>189</v>
       </c>
       <c r="B14" s="2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C14">
-        <f t="shared" si="0"/>
-        <v>-0.85000000000000031</v>
+        <v>-0.1</v>
       </c>
       <c r="D14" s="2">
-        <v>-0.5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -4293,15 +3954,13 @@
         <v>190</v>
       </c>
       <c r="B15" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C15">
-        <f t="shared" si="0"/>
-        <v>-0.82500000000000029</v>
+        <v>0</v>
       </c>
       <c r="D15" s="2">
-        <f>D14+0.025</f>
-        <v>-0.47499999999999998</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -4309,15 +3968,13 @@
         <v>191</v>
       </c>
       <c r="B16" s="2">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C16">
-        <f t="shared" si="0"/>
-        <v>-0.80000000000000027</v>
+        <v>9.9999999999999895E-2</v>
       </c>
       <c r="D16" s="2">
-        <f t="shared" ref="D16:D58" si="1">D15+0.025</f>
-        <v>-0.44999999999999996</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -4328,12 +3985,10 @@
         <v>3</v>
       </c>
       <c r="C17">
-        <f t="shared" si="0"/>
-        <v>-0.77500000000000024</v>
+        <v>0.2</v>
       </c>
       <c r="D17" s="2">
-        <f t="shared" si="1"/>
-        <v>-0.42499999999999993</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -4341,15 +3996,13 @@
         <v>193</v>
       </c>
       <c r="B18" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C18">
-        <f t="shared" si="0"/>
-        <v>-0.75000000000000022</v>
+        <v>0.3</v>
       </c>
       <c r="D18" s="2">
-        <f t="shared" si="1"/>
-        <v>-0.39999999999999991</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -4357,15 +4010,13 @@
         <v>194</v>
       </c>
       <c r="B19" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C19">
-        <f t="shared" si="0"/>
-        <v>-0.7250000000000002</v>
+        <v>0.4</v>
       </c>
       <c r="D19" s="2">
-        <f t="shared" si="1"/>
-        <v>-0.37499999999999989</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -4373,15 +4024,13 @@
         <v>195</v>
       </c>
       <c r="B20" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C20">
-        <f t="shared" si="0"/>
-        <v>-0.70000000000000018</v>
+        <v>0.5</v>
       </c>
       <c r="D20" s="2">
-        <f t="shared" si="1"/>
-        <v>-0.34999999999999987</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -4389,15 +4038,13 @@
         <v>196</v>
       </c>
       <c r="B21" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C21">
-        <f t="shared" si="0"/>
-        <v>-0.67500000000000016</v>
+        <v>0.6</v>
       </c>
       <c r="D21" s="2">
-        <f t="shared" si="1"/>
-        <v>-0.32499999999999984</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -4405,15 +4052,13 @@
         <v>197</v>
       </c>
       <c r="B22" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C22">
-        <f t="shared" si="0"/>
-        <v>-0.65000000000000013</v>
+        <v>0.7</v>
       </c>
       <c r="D22" s="2">
-        <f t="shared" si="1"/>
-        <v>-0.29999999999999982</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -4421,15 +4066,13 @@
         <v>198</v>
       </c>
       <c r="B23" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C23">
-        <f t="shared" si="0"/>
-        <v>-0.62500000000000011</v>
+        <v>0.8</v>
       </c>
       <c r="D23" s="2">
-        <f t="shared" si="1"/>
-        <v>-0.2749999999999998</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -4440,563 +4083,123 @@
         <v>1</v>
       </c>
       <c r="C24">
-        <f t="shared" si="0"/>
-        <v>-0.60000000000000009</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D24" s="2">
-        <f>-0.225</f>
-        <v>-0.22500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>200</v>
+        <v>102</v>
       </c>
       <c r="B25" s="2">
-        <v>1</v>
-      </c>
-      <c r="C25">
-        <f t="shared" si="0"/>
-        <v>-0.57500000000000007</v>
-      </c>
-      <c r="D25" s="2">
-        <f>-0.175</f>
-        <v>-0.17499999999999999</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="D25" s="2"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="B26" s="2">
-        <v>2</v>
-      </c>
-      <c r="C26">
-        <f t="shared" si="0"/>
-        <v>-0.55000000000000004</v>
-      </c>
-      <c r="D26" s="2">
-        <f t="shared" si="1"/>
-        <v>-0.15</v>
-      </c>
+      <c r="D26" s="2"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="B27" s="2">
-        <v>1</v>
-      </c>
-      <c r="C27">
-        <f t="shared" si="0"/>
-        <v>-0.52500000000000002</v>
-      </c>
-      <c r="D27" s="2">
-        <f t="shared" si="1"/>
-        <v>-0.125</v>
-      </c>
+      <c r="D27" s="2"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B28" s="2">
-        <v>2</v>
-      </c>
-      <c r="C28">
-        <f t="shared" si="0"/>
-        <v>-0.5</v>
-      </c>
-      <c r="D28" s="2">
-        <f t="shared" si="1"/>
-        <v>-0.1</v>
-      </c>
+      <c r="D28" s="2"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="B29" s="2">
-        <v>4</v>
-      </c>
-      <c r="C29">
-        <f t="shared" si="0"/>
-        <v>-0.47499999999999998</v>
-      </c>
-      <c r="D29" s="2">
-        <f t="shared" si="1"/>
-        <v>-7.5000000000000011E-2</v>
-      </c>
+      <c r="D29" s="2"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="B30" s="2">
-        <v>1</v>
-      </c>
-      <c r="C30">
-        <f t="shared" si="0"/>
-        <v>-0.44999999999999996</v>
-      </c>
-      <c r="D30" s="2">
-        <f t="shared" si="1"/>
-        <v>-5.000000000000001E-2</v>
-      </c>
+      <c r="D30" s="2"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="B31" s="2">
-        <v>1</v>
-      </c>
-      <c r="C31">
-        <f t="shared" si="0"/>
-        <v>-0.42499999999999993</v>
-      </c>
-      <c r="D31" s="2">
-        <f t="shared" si="1"/>
-        <v>-2.5000000000000008E-2</v>
-      </c>
+      <c r="D31" s="2"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="B32" s="2">
-        <v>2</v>
-      </c>
-      <c r="C32">
-        <f t="shared" si="0"/>
-        <v>-0.39999999999999991</v>
-      </c>
-      <c r="D32" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="B33" s="2">
-        <v>2</v>
-      </c>
-      <c r="C33">
-        <f t="shared" si="0"/>
-        <v>-0.37499999999999989</v>
-      </c>
-      <c r="D33" s="2">
-        <f t="shared" si="1"/>
-        <v>2.5000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="B34" s="2">
-        <v>1</v>
-      </c>
-      <c r="C34">
-        <f t="shared" si="0"/>
-        <v>-0.34999999999999987</v>
-      </c>
-      <c r="D34" s="2">
-        <f t="shared" si="1"/>
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="B35" s="2">
-        <v>2</v>
-      </c>
-      <c r="C35">
-        <f t="shared" si="0"/>
-        <v>-0.32499999999999984</v>
-      </c>
-      <c r="D35" s="2">
-        <f t="shared" si="1"/>
-        <v>7.5000000000000011E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="B36" s="2">
-        <v>5</v>
-      </c>
-      <c r="C36">
-        <f t="shared" si="0"/>
-        <v>-0.29999999999999982</v>
-      </c>
-      <c r="D36" s="2">
-        <f t="shared" si="1"/>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="B37" s="2">
-        <v>2</v>
-      </c>
-      <c r="C37">
-        <f t="shared" si="0"/>
-        <v>-0.2749999999999998</v>
-      </c>
-      <c r="D37" s="2">
-        <f t="shared" si="1"/>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="B38" s="2">
-        <v>4</v>
-      </c>
-      <c r="C38">
-        <f t="shared" si="0"/>
-        <v>-0.24999999999999981</v>
-      </c>
-      <c r="D38" s="2">
-        <f t="shared" si="1"/>
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="B39" s="2">
-        <v>1</v>
-      </c>
-      <c r="C39">
-        <f t="shared" si="0"/>
-        <v>-0.22499999999999981</v>
-      </c>
-      <c r="D39" s="2">
-        <f>0.225</f>
-        <v>0.22500000000000001</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="B40" s="2">
-        <v>2</v>
-      </c>
-      <c r="C40">
-        <f t="shared" si="0"/>
-        <v>-0.19999999999999982</v>
-      </c>
-      <c r="D40" s="2">
-        <f>0.275</f>
-        <v>0.27500000000000002</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="B41" s="2">
-        <v>4</v>
-      </c>
-      <c r="C41">
-        <f t="shared" si="0"/>
-        <v>-0.17499999999999982</v>
-      </c>
-      <c r="D41" s="2">
-        <f>0.325</f>
-        <v>0.32500000000000001</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="B42" s="2">
-        <v>3</v>
-      </c>
-      <c r="C42">
-        <f t="shared" si="0"/>
-        <v>-0.14999999999999983</v>
-      </c>
-      <c r="D42" s="2">
-        <f>0.375</f>
-        <v>0.375</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="B43" s="2">
-        <v>2</v>
-      </c>
-      <c r="C43">
-        <f t="shared" si="0"/>
-        <v>-0.12499999999999983</v>
-      </c>
-      <c r="D43" s="2">
-        <f t="shared" si="1"/>
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="B44" s="2">
-        <v>1</v>
-      </c>
-      <c r="C44">
-        <f t="shared" si="0"/>
-        <v>-9.9999999999999839E-2</v>
-      </c>
-      <c r="D44" s="2">
-        <f t="shared" si="1"/>
-        <v>0.42500000000000004</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="B45" s="2">
-        <v>2</v>
-      </c>
-      <c r="C45">
-        <f t="shared" si="0"/>
-        <v>-7.4999999999999845E-2</v>
-      </c>
-      <c r="D45" s="2">
-        <f t="shared" si="1"/>
-        <v>0.45000000000000007</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="B46" s="2">
-        <v>1</v>
-      </c>
-      <c r="C46">
-        <f t="shared" si="0"/>
-        <v>-4.9999999999999843E-2</v>
-      </c>
-      <c r="D46" s="2">
-        <f t="shared" si="1"/>
-        <v>0.47500000000000009</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="B47" s="2">
-        <v>1</v>
-      </c>
-      <c r="C47">
-        <f t="shared" si="0"/>
-        <v>-2.4999999999999842E-2</v>
-      </c>
-      <c r="D47" s="2">
-        <v>0.52500000000000002</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="B48" s="2">
-        <v>1</v>
-      </c>
-      <c r="C48">
-        <f t="shared" si="0"/>
-        <v>1.5959455978986625E-16</v>
-      </c>
-      <c r="D48" s="2">
-        <f t="shared" si="1"/>
-        <v>0.55000000000000004</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="B49" s="2">
-        <v>1</v>
-      </c>
-      <c r="C49">
-        <f t="shared" si="0"/>
-        <v>2.5000000000000161E-2</v>
-      </c>
-      <c r="D49" s="2">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="B50" s="2">
-        <v>2</v>
-      </c>
-      <c r="C50">
-        <f t="shared" si="0"/>
-        <v>5.0000000000000162E-2</v>
-      </c>
-      <c r="D50" s="2">
-        <f t="shared" si="1"/>
-        <v>0.625</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="B51" s="2">
-        <v>1</v>
-      </c>
-      <c r="C51">
-        <f t="shared" si="0"/>
-        <v>7.5000000000000164E-2</v>
-      </c>
-      <c r="D51" s="2">
-        <f t="shared" si="1"/>
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="B52" s="2">
-        <v>1</v>
-      </c>
-      <c r="C52">
-        <f t="shared" si="0"/>
-        <v>0.10000000000000017</v>
-      </c>
-      <c r="D52" s="2">
-        <f t="shared" si="1"/>
-        <v>0.67500000000000004</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="B53" s="2">
-        <v>1</v>
-      </c>
-      <c r="C53">
-        <f t="shared" si="0"/>
-        <v>0.12500000000000017</v>
-      </c>
-      <c r="D53" s="2">
-        <f t="shared" si="1"/>
-        <v>0.70000000000000007</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="B54" s="2">
-        <v>1</v>
-      </c>
-      <c r="C54">
-        <f t="shared" si="0"/>
-        <v>0.15000000000000016</v>
-      </c>
-      <c r="D54" s="2">
-        <f t="shared" si="1"/>
-        <v>0.72500000000000009</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="B55" s="2">
-        <v>1</v>
-      </c>
-      <c r="C55">
-        <f t="shared" si="0"/>
-        <v>0.17500000000000016</v>
-      </c>
-      <c r="D55" s="2">
-        <f t="shared" si="1"/>
-        <v>0.75000000000000011</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="B56" s="2">
-        <v>2</v>
-      </c>
-      <c r="C56">
-        <f t="shared" si="0"/>
-        <v>0.20000000000000015</v>
-      </c>
-      <c r="D56" s="2">
-        <v>0.82499999999999996</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="B57" s="2">
-        <v>2</v>
-      </c>
-      <c r="C57">
-        <f t="shared" si="0"/>
-        <v>0.22500000000000014</v>
-      </c>
-      <c r="D57" s="2">
-        <v>0.875</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="B58" s="2">
-        <v>1</v>
-      </c>
-      <c r="C58">
-        <f t="shared" si="0"/>
-        <v>0.25000000000000017</v>
-      </c>
-      <c r="D58" s="2">
-        <v>1.175</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="B59" s="2">
-        <v>95</v>
-      </c>
+      <c r="D32" s="2"/>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D33" s="2"/>
+    </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D34" s="2"/>
+    </row>
+    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D35" s="2"/>
+    </row>
+    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D36" s="2"/>
+    </row>
+    <row r="37" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D37" s="2"/>
+    </row>
+    <row r="38" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D38" s="2"/>
+    </row>
+    <row r="39" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D39" s="2"/>
+    </row>
+    <row r="40" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D41" s="2"/>
+    </row>
+    <row r="42" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D42" s="2"/>
+    </row>
+    <row r="43" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D43" s="2"/>
+    </row>
+    <row r="44" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D44" s="2"/>
+    </row>
+    <row r="45" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D45" s="2"/>
+    </row>
+    <row r="46" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D46" s="2"/>
+    </row>
+    <row r="47" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D47" s="2"/>
+    </row>
+    <row r="48" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D48" s="2"/>
+    </row>
+    <row r="49" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D49" s="2"/>
+    </row>
+    <row r="50" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D50" s="2"/>
+    </row>
+    <row r="51" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D51" s="2"/>
+    </row>
+    <row r="52" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D52" s="2"/>
+    </row>
+    <row r="53" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D53" s="2"/>
+    </row>
+    <row r="54" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D54" s="2"/>
+    </row>
+    <row r="55" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D55" s="2"/>
+    </row>
+    <row r="56" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D56" s="2"/>
+    </row>
+    <row r="57" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D57" s="2"/>
+    </row>
+    <row r="58" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D58" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5697,8 +4900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K28" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G96"/>
+    <sheetView tabSelected="1" topLeftCell="H28" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8051,7 +7254,7 @@
         <v>142</v>
       </c>
       <c r="D3">
-        <f>D2+0.05</f>
+        <f t="shared" ref="D3:D13" si="0">D2+0.05</f>
         <v>-0.97879999999999989</v>
       </c>
     </row>
@@ -8060,7 +7263,7 @@
         <v>143</v>
       </c>
       <c r="D4">
-        <f>D3+0.05</f>
+        <f t="shared" si="0"/>
         <v>-0.92879999999999985</v>
       </c>
     </row>
@@ -8069,7 +7272,7 @@
         <v>144</v>
       </c>
       <c r="D5">
-        <f>D4+0.05</f>
+        <f t="shared" si="0"/>
         <v>-0.8787999999999998</v>
       </c>
     </row>
@@ -8078,7 +7281,7 @@
         <v>145</v>
       </c>
       <c r="D6">
-        <f>D5+0.05</f>
+        <f t="shared" si="0"/>
         <v>-0.82879999999999976</v>
       </c>
     </row>
@@ -8087,7 +7290,7 @@
         <v>146</v>
       </c>
       <c r="D7">
-        <f>D6+0.05</f>
+        <f t="shared" si="0"/>
         <v>-0.77879999999999971</v>
       </c>
     </row>
@@ -8096,7 +7299,7 @@
         <v>147</v>
       </c>
       <c r="D8">
-        <f>D7+0.05</f>
+        <f t="shared" si="0"/>
         <v>-0.72879999999999967</v>
       </c>
     </row>
@@ -8105,7 +7308,7 @@
         <v>148</v>
       </c>
       <c r="D9">
-        <f>D8+0.05</f>
+        <f t="shared" si="0"/>
         <v>-0.67879999999999963</v>
       </c>
     </row>
@@ -8114,7 +7317,7 @@
         <v>149</v>
       </c>
       <c r="D10">
-        <f>D9+0.05</f>
+        <f t="shared" si="0"/>
         <v>-0.62879999999999958</v>
       </c>
     </row>
@@ -8123,7 +7326,7 @@
         <v>150</v>
       </c>
       <c r="D11">
-        <f>D10+0.05</f>
+        <f t="shared" si="0"/>
         <v>-0.57879999999999954</v>
       </c>
     </row>
@@ -8132,7 +7335,7 @@
         <v>151</v>
       </c>
       <c r="D12">
-        <f>D11+0.05</f>
+        <f t="shared" si="0"/>
         <v>-0.52879999999999949</v>
       </c>
     </row>
@@ -8141,7 +7344,7 @@
         <v>152</v>
       </c>
       <c r="D13">
-        <f>D12+0.05</f>
+        <f t="shared" si="0"/>
         <v>-0.4787999999999995</v>
       </c>
     </row>
@@ -8150,7 +7353,7 @@
         <v>153</v>
       </c>
       <c r="D14">
-        <f t="shared" ref="D14:D37" si="0">D13+0.05</f>
+        <f t="shared" ref="D14:D23" si="1">D13+0.05</f>
         <v>-0.42879999999999951</v>
       </c>
     </row>
@@ -8159,7 +7362,7 @@
         <v>154</v>
       </c>
       <c r="D15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.37879999999999953</v>
       </c>
     </row>
@@ -8168,7 +7371,7 @@
         <v>155</v>
       </c>
       <c r="D16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.32879999999999954</v>
       </c>
     </row>
@@ -8177,7 +7380,7 @@
         <v>156</v>
       </c>
       <c r="D17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.27879999999999955</v>
       </c>
     </row>
@@ -8186,7 +7389,7 @@
         <v>157</v>
       </c>
       <c r="D18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.22879999999999956</v>
       </c>
     </row>
@@ -8195,7 +7398,7 @@
         <v>158</v>
       </c>
       <c r="D19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.17879999999999957</v>
       </c>
     </row>
@@ -8204,7 +7407,7 @@
         <v>159</v>
       </c>
       <c r="D20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.12879999999999958</v>
       </c>
     </row>
@@ -8213,7 +7416,7 @@
         <v>160</v>
       </c>
       <c r="D21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-7.8799999999999579E-2</v>
       </c>
     </row>
@@ -8222,7 +7425,7 @@
         <v>161</v>
       </c>
       <c r="D22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-2.8799999999999576E-2</v>
       </c>
     </row>
@@ -8231,7 +7434,7 @@
         <v>162</v>
       </c>
       <c r="D23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.1200000000000427E-2</v>
       </c>
     </row>
@@ -8249,7 +7452,7 @@
         <v>164</v>
       </c>
       <c r="D25">
-        <f t="shared" ref="D25:D37" si="1">D24+0.05</f>
+        <f t="shared" ref="D25:D34" si="2">D24+0.05</f>
         <v>0.12120000000000043</v>
       </c>
     </row>
@@ -8258,7 +7461,7 @@
         <v>165</v>
       </c>
       <c r="D26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.17120000000000044</v>
       </c>
     </row>
@@ -8267,7 +7470,7 @@
         <v>166</v>
       </c>
       <c r="D27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.22120000000000045</v>
       </c>
     </row>
@@ -8276,7 +7479,7 @@
         <v>167</v>
       </c>
       <c r="D28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.27120000000000044</v>
       </c>
     </row>
@@ -8285,7 +7488,7 @@
         <v>168</v>
       </c>
       <c r="D29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.32120000000000043</v>
       </c>
     </row>
@@ -8294,7 +7497,7 @@
         <v>169</v>
       </c>
       <c r="D30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.37120000000000042</v>
       </c>
     </row>
@@ -8303,7 +7506,7 @@
         <v>170</v>
       </c>
       <c r="D31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.42120000000000041</v>
       </c>
     </row>
@@ -8312,7 +7515,7 @@
         <v>171</v>
       </c>
       <c r="D32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.4712000000000004</v>
       </c>
     </row>
@@ -8321,7 +7524,7 @@
         <v>172</v>
       </c>
       <c r="D33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.52120000000000044</v>
       </c>
     </row>
@@ -8330,7 +7533,7 @@
         <v>173</v>
       </c>
       <c r="D34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.57120000000000049</v>
       </c>
     </row>
@@ -8348,7 +7551,7 @@
         <v>175</v>
       </c>
       <c r="D36">
-        <f t="shared" ref="D36:D37" si="2">D35+0.05</f>
+        <f t="shared" ref="D36:D37" si="3">D35+0.05</f>
         <v>0.67120000000000057</v>
       </c>
     </row>
@@ -8357,7 +7560,7 @@
         <v>176</v>
       </c>
       <c r="D37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.72120000000000062</v>
       </c>
     </row>

--- a/Data/EXO/DESeq/CELLandEXOchangeMIR.xlsx
+++ b/Data/EXO/DESeq/CELLandEXOchangeMIR.xlsx
@@ -5,21 +5,22 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harle_000\Documents\HONOURS\NewGIT\Data\EXO\DESeq\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hrobinson\Documents\GITSTUFF\Data\EXO\DESeq\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13635" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13635" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -704,63 +705,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-AU"/>
-              <a:t>Down</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -772,7 +717,7 @@
           <c:order val="0"/>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1083,11 +1028,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:axId val="192116728"/>
-        <c:axId val="239926872"/>
+        <c:axId val="295484208"/>
+        <c:axId val="295483648"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="192116728"/>
+        <c:axId val="295484208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1096,7 +1041,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
+        <c:tickLblPos val="high"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -1117,10 +1062,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1130,15 +1072,15 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="239926872"/>
+        <c:crossAx val="295483648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
+        <c:lblOffset val="0"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="239926872"/>
+        <c:axId val="295483648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1158,6 +1100,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU" sz="1100">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>FCexo-FCcell</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1170,16 +1172,13 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1189,7 +1188,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="192116728"/>
+        <c:crossAx val="295484208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1252,38 +1251,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -1295,7 +1263,7 @@
           <c:order val="0"/>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1624,11 +1592,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="238183688"/>
-        <c:axId val="238186432"/>
+        <c:axId val="287721232"/>
+        <c:axId val="287721792"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="238183688"/>
+        <c:axId val="287721232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1658,10 +1626,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1671,7 +1636,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="238186432"/>
+        <c:crossAx val="287721792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1679,7 +1644,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="238186432"/>
+        <c:axId val="287721792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1699,6 +1664,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU" sz="1100">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>FCexo-FCcell</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1715,12 +1740,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1730,7 +1752,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="238183688"/>
+        <c:crossAx val="287721232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1766,7 +1788,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr baseline="0"/>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -2874,13 +2896,13 @@
       <xdr:col>9</xdr:col>
       <xdr:colOff>285749</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>11908</xdr:rowOff>
+      <xdr:rowOff>11907</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>428623</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>71438</xdr:rowOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2903,14 +2925,14 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>476249</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>182165</xdr:rowOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>5271</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>500062</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>149678</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3374,7 +3396,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="A3:B25" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="1">
     <pivotField axis="axisRow" dataField="1" showAll="0">
@@ -4900,8 +4922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H28" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="X19" sqref="X19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7223,6 +7245,18 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D37"/>
   <sheetViews>

--- a/Data/EXO/DESeq/CELLandEXOchangeMIR.xlsx
+++ b/Data/EXO/DESeq/CELLandEXOchangeMIR.xlsx
@@ -1028,11 +1028,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:axId val="295484208"/>
-        <c:axId val="295483648"/>
+        <c:axId val="131678144"/>
+        <c:axId val="131678704"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="295484208"/>
+        <c:axId val="131678144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1072,7 +1072,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="295483648"/>
+        <c:crossAx val="131678704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1080,7 +1080,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="295483648"/>
+        <c:axId val="131678704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1172,7 +1172,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -1188,7 +1188,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="295484208"/>
+        <c:crossAx val="131678144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1592,11 +1592,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="287721232"/>
-        <c:axId val="287721792"/>
+        <c:axId val="131680944"/>
+        <c:axId val="131681504"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="287721232"/>
+        <c:axId val="131680944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1636,7 +1636,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="287721792"/>
+        <c:crossAx val="131681504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1644,7 +1644,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="287721792"/>
+        <c:axId val="131681504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1752,7 +1752,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="287721232"/>
+        <c:crossAx val="131680944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4922,7 +4922,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="X19" sqref="X19"/>
     </sheetView>
   </sheetViews>

--- a/Data/EXO/DESeq/CELLandEXOchangeMIR.xlsx
+++ b/Data/EXO/DESeq/CELLandEXOchangeMIR.xlsx
@@ -15,12 +15,13 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="6" r:id="rId4"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="7" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId5"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId6"/>
+    <pivotCache cacheId="5" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="295">
   <si>
     <t>hsa-let-7b-5p</t>
   </si>
@@ -631,6 +632,291 @@
   </si>
   <si>
     <t>1.1-1.2</t>
+  </si>
+  <si>
+    <t>miR-200a-3p</t>
+  </si>
+  <si>
+    <t>miR-148a-3p</t>
+  </si>
+  <si>
+    <t>miR-429-3p</t>
+  </si>
+  <si>
+    <t>miR-16-2-3p</t>
+  </si>
+  <si>
+    <t>miR-20b-5p</t>
+  </si>
+  <si>
+    <t>miR-30a-5p</t>
+  </si>
+  <si>
+    <t>miR-30e-5p</t>
+  </si>
+  <si>
+    <t>miR-375-3p</t>
+  </si>
+  <si>
+    <t>miR-22-3p</t>
+  </si>
+  <si>
+    <t>miR-181d-5p</t>
+  </si>
+  <si>
+    <t>miR-10a-3p</t>
+  </si>
+  <si>
+    <t>miR-19a-3p</t>
+  </si>
+  <si>
+    <t>miR-151a-3p</t>
+  </si>
+  <si>
+    <t>miR-3615-3p</t>
+  </si>
+  <si>
+    <t>miR-98-5p</t>
+  </si>
+  <si>
+    <t>miR-148b-3p</t>
+  </si>
+  <si>
+    <t>miR-186-5p</t>
+  </si>
+  <si>
+    <t>miR-147b-3p</t>
+  </si>
+  <si>
+    <t>miR-196a-5p</t>
+  </si>
+  <si>
+    <t>miR-32-5p</t>
+  </si>
+  <si>
+    <t>miR-221-5p</t>
+  </si>
+  <si>
+    <t>miR-10b-5p</t>
+  </si>
+  <si>
+    <t>miR-128-1-3p</t>
+  </si>
+  <si>
+    <t>miR-99a-5p</t>
+  </si>
+  <si>
+    <t>miR-27a-3p</t>
+  </si>
+  <si>
+    <t>miR-629-5p</t>
+  </si>
+  <si>
+    <t>miR-421-3p</t>
+  </si>
+  <si>
+    <t>miR-125a-5p</t>
+  </si>
+  <si>
+    <t>miR-25-3p</t>
+  </si>
+  <si>
+    <t>miR-340-5p</t>
+  </si>
+  <si>
+    <t>miR-146a-5p</t>
+  </si>
+  <si>
+    <t>miR-221-3p</t>
+  </si>
+  <si>
+    <t>miR-1307-3p</t>
+  </si>
+  <si>
+    <t>let-7c-5p</t>
+  </si>
+  <si>
+    <t>miR-183-5p</t>
+  </si>
+  <si>
+    <t>miR-582-3p</t>
+  </si>
+  <si>
+    <t>miR-651-5p</t>
+  </si>
+  <si>
+    <t>miR-532-5p</t>
+  </si>
+  <si>
+    <t>miR-450b-5p</t>
+  </si>
+  <si>
+    <t>miR-362-5p</t>
+  </si>
+  <si>
+    <t>miR-181a-2-3p</t>
+  </si>
+  <si>
+    <t>miR-200a-5p</t>
+  </si>
+  <si>
+    <t>let-7b-5p</t>
+  </si>
+  <si>
+    <t>miR-30a-3p</t>
+  </si>
+  <si>
+    <t>miR-200b-3p</t>
+  </si>
+  <si>
+    <t>miR-215-5p</t>
+  </si>
+  <si>
+    <t>miR-589-5p</t>
+  </si>
+  <si>
+    <t>miR-320a-3p</t>
+  </si>
+  <si>
+    <t>miR-542-3p</t>
+  </si>
+  <si>
+    <t>miR-99b-3p</t>
+  </si>
+  <si>
+    <t>miR-191-5p</t>
+  </si>
+  <si>
+    <t>miR-500a-3p</t>
+  </si>
+  <si>
+    <t>miR-152-3p</t>
+  </si>
+  <si>
+    <t>miR-363-3p</t>
+  </si>
+  <si>
+    <t>miR-374a-5p</t>
+  </si>
+  <si>
+    <t>let-7d-3p</t>
+  </si>
+  <si>
+    <t>miR-374a-3p</t>
+  </si>
+  <si>
+    <t>miR-1180-3p</t>
+  </si>
+  <si>
+    <t>miR-502-3p</t>
+  </si>
+  <si>
+    <t>miR-149-5p</t>
+  </si>
+  <si>
+    <t>miR-671-5p</t>
+  </si>
+  <si>
+    <t>miR-92b-3p</t>
+  </si>
+  <si>
+    <t>miR-93-5p</t>
+  </si>
+  <si>
+    <t>miR-182-5p</t>
+  </si>
+  <si>
+    <t>miR-26b-5p</t>
+  </si>
+  <si>
+    <t>miR-148a-5p</t>
+  </si>
+  <si>
+    <t>let-7d-5p</t>
+  </si>
+  <si>
+    <t>miR-15b-5p</t>
+  </si>
+  <si>
+    <t>miR-28-3p</t>
+  </si>
+  <si>
+    <t>miR-125b-2-3p</t>
+  </si>
+  <si>
+    <t>miR-503-5p</t>
+  </si>
+  <si>
+    <t>let-7g-5p</t>
+  </si>
+  <si>
+    <t>miR-769-5p</t>
+  </si>
+  <si>
+    <t>miR-222-3p</t>
+  </si>
+  <si>
+    <t>miR-125a-3p</t>
+  </si>
+  <si>
+    <t>miR-30b-5p</t>
+  </si>
+  <si>
+    <t>let-7i-5p</t>
+  </si>
+  <si>
+    <t>miR-30e-3p</t>
+  </si>
+  <si>
+    <t>miR-484-5p</t>
+  </si>
+  <si>
+    <t>miR-106b-3p</t>
+  </si>
+  <si>
+    <t>miR-196b-5p</t>
+  </si>
+  <si>
+    <t>miR-17-5p</t>
+  </si>
+  <si>
+    <t>miR-4664-3p</t>
+  </si>
+  <si>
+    <t>miR-1269a-3p</t>
+  </si>
+  <si>
+    <t>miR-27a-5p</t>
+  </si>
+  <si>
+    <t>miR-361-5p</t>
+  </si>
+  <si>
+    <t>miR-205-5p</t>
+  </si>
+  <si>
+    <t>miR-574-3p</t>
+  </si>
+  <si>
+    <t>miR-339-5p</t>
+  </si>
+  <si>
+    <t>let-7e-5p</t>
+  </si>
+  <si>
+    <t>miR-877-5p</t>
+  </si>
+  <si>
+    <t>miR-31-5p</t>
+  </si>
+  <si>
+    <t>miR-185-5p</t>
+  </si>
+  <si>
+    <t>miR-6087-3p</t>
+  </si>
+  <si>
+    <t>miR-140-3p</t>
   </si>
 </sst>
 </file>
@@ -731,142 +1017,142 @@
               <c:strCache>
                 <c:ptCount val="46"/>
                 <c:pt idx="0">
-                  <c:v>hsa-miR-200a-3p</c:v>
+                  <c:v>miR-200a-3p</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>hsa-miR-148a-3p</c:v>
+                  <c:v>miR-148a-3p</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>hsa-miR-429-3p</c:v>
+                  <c:v>miR-429-3p</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>hsa-miR-16-2-3p</c:v>
+                  <c:v>miR-16-2-3p</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>hsa-miR-20b-5p</c:v>
+                  <c:v>miR-20b-5p</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>hsa-miR-30a-5p</c:v>
+                  <c:v>miR-30a-5p</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>hsa-miR-30e-5p</c:v>
+                  <c:v>miR-30e-5p</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>hsa-miR-375-3p</c:v>
+                  <c:v>miR-375-3p</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>hsa-miR-22-3p</c:v>
+                  <c:v>miR-22-3p</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>hsa-miR-181d-5p</c:v>
+                  <c:v>miR-181d-5p</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>hsa-miR-10a-3p</c:v>
+                  <c:v>miR-10a-3p</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>hsa-miR-19a-3p</c:v>
+                  <c:v>miR-19a-3p</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>hsa-miR-151a-3p</c:v>
+                  <c:v>miR-151a-3p</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>hsa-miR-3615-3p</c:v>
+                  <c:v>miR-3615-3p</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>hsa-miR-148b-3p</c:v>
+                  <c:v>miR-148b-3p</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>hsa-miR-98-5p</c:v>
+                  <c:v>miR-98-5p</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>hsa-miR-186-5p</c:v>
+                  <c:v>miR-186-5p</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>hsa-miR-147b-3p</c:v>
+                  <c:v>miR-147b-3p</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>hsa-miR-196a-5p</c:v>
+                  <c:v>miR-196a-5p</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>hsa-miR-32-5p</c:v>
+                  <c:v>miR-32-5p</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>hsa-miR-221-5p</c:v>
+                  <c:v>miR-221-5p</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>hsa-miR-10b-5p</c:v>
+                  <c:v>miR-10b-5p</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>hsa-miR-128-1-3p</c:v>
+                  <c:v>miR-128-1-3p</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>hsa-miR-99a-5p</c:v>
+                  <c:v>miR-99a-5p</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>hsa-miR-27a-3p</c:v>
+                  <c:v>miR-27a-3p</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>hsa-miR-629-5p</c:v>
+                  <c:v>miR-629-5p</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>hsa-miR-421-3p</c:v>
+                  <c:v>miR-421-3p</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>hsa-miR-125a-5p</c:v>
+                  <c:v>miR-125a-5p</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>hsa-miR-25-3p</c:v>
+                  <c:v>miR-25-3p</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>hsa-miR-340-5p</c:v>
+                  <c:v>miR-340-5p</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>hsa-miR-146a-5p</c:v>
+                  <c:v>miR-146a-5p</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>hsa-miR-221-3p</c:v>
+                  <c:v>miR-221-3p</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>hsa-miR-1307-3p</c:v>
+                  <c:v>miR-1307-3p</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>hsa-let-7c-5p</c:v>
+                  <c:v>let-7c-5p</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>hsa-miR-183-5p</c:v>
+                  <c:v>miR-183-5p</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>hsa-miR-582-3p</c:v>
+                  <c:v>miR-582-3p</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>hsa-miR-651-5p</c:v>
+                  <c:v>miR-651-5p</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>hsa-miR-532-5p</c:v>
+                  <c:v>miR-532-5p</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>hsa-miR-450b-5p</c:v>
+                  <c:v>miR-450b-5p</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>hsa-miR-362-5p</c:v>
+                  <c:v>miR-362-5p</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>hsa-miR-181a-2-3p</c:v>
+                  <c:v>miR-181a-2-3p</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>hsa-miR-200a-5p</c:v>
+                  <c:v>miR-200a-5p</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>hsa-let-7b-5p</c:v>
+                  <c:v>let-7b-5p</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>hsa-miR-30a-3p</c:v>
+                  <c:v>miR-30a-3p</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>hsa-miR-200b-3p</c:v>
+                  <c:v>miR-200b-3p</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>hsa-miR-215-5p</c:v>
+                  <c:v>miR-215-5p</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1028,11 +1314,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:axId val="131678144"/>
-        <c:axId val="131678704"/>
+        <c:axId val="298564992"/>
+        <c:axId val="298563312"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="131678144"/>
+        <c:axId val="298564992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1072,7 +1358,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="131678704"/>
+        <c:crossAx val="298563312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1080,7 +1366,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="131678704"/>
+        <c:axId val="298563312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1188,7 +1474,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="131678144"/>
+        <c:crossAx val="298564992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1277,151 +1563,151 @@
               <c:strCache>
                 <c:ptCount val="49"/>
                 <c:pt idx="0">
-                  <c:v>hsa-miR-589-5p</c:v>
+                  <c:v>miR-589-5p</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>hsa-miR-320a-3p</c:v>
+                  <c:v>miR-320a-3p</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>hsa-miR-542-3p</c:v>
+                  <c:v>miR-542-3p</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>hsa-miR-99b-3p</c:v>
+                  <c:v>miR-99b-3p</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>hsa-miR-191-5p</c:v>
+                  <c:v>miR-191-5p</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>hsa-miR-500a-3p</c:v>
+                  <c:v>miR-500a-3p</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>hsa-miR-152-3p</c:v>
+                  <c:v>miR-152-3p</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>hsa-miR-363-3p</c:v>
+                  <c:v>miR-363-3p</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>hsa-miR-374a-5p</c:v>
+                  <c:v>miR-374a-5p</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>hsa-let-7d-3p</c:v>
+                  <c:v>let-7d-3p</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>hsa-miR-374a-3p</c:v>
+                  <c:v>miR-374a-3p</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>hsa-miR-1180-3p</c:v>
+                  <c:v>miR-1180-3p</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>hsa-miR-502-3p</c:v>
+                  <c:v>miR-502-3p</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>hsa-miR-149-5p</c:v>
+                  <c:v>miR-149-5p</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>hsa-miR-671-5p</c:v>
+                  <c:v>miR-671-5p</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>hsa-miR-92b-3p</c:v>
+                  <c:v>miR-92b-3p</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>hsa-miR-93-5p</c:v>
+                  <c:v>miR-93-5p</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>hsa-miR-182-5p</c:v>
+                  <c:v>miR-182-5p</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>hsa-miR-26b-5p</c:v>
+                  <c:v>miR-26b-5p</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>hsa-miR-148a-5p</c:v>
+                  <c:v>miR-148a-5p</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>hsa-let-7d-5p</c:v>
+                  <c:v>let-7d-5p</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>hsa-miR-15b-5p</c:v>
+                  <c:v>miR-15b-5p</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>hsa-miR-28-3p</c:v>
+                  <c:v>miR-28-3p</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>hsa-miR-125b-2-3p</c:v>
+                  <c:v>miR-125b-2-3p</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>hsa-miR-503-5p</c:v>
+                  <c:v>miR-503-5p</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>hsa-let-7g-5p</c:v>
+                  <c:v>let-7g-5p</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>hsa-miR-769-5p</c:v>
+                  <c:v>miR-769-5p</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>hsa-miR-222-3p</c:v>
+                  <c:v>miR-222-3p</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>hsa-miR-125a-3p</c:v>
+                  <c:v>miR-125a-3p</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>hsa-miR-30b-5p</c:v>
+                  <c:v>miR-30b-5p</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>hsa-let-7i-5p</c:v>
+                  <c:v>let-7i-5p</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>hsa-miR-30e-3p</c:v>
+                  <c:v>miR-30e-3p</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>hsa-miR-484-5p</c:v>
+                  <c:v>miR-484-5p</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>hsa-miR-106b-3p</c:v>
+                  <c:v>miR-106b-3p</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>hsa-miR-196b-5p</c:v>
+                  <c:v>miR-196b-5p</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>hsa-miR-17-5p</c:v>
+                  <c:v>miR-17-5p</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>hsa-miR-4664-3p</c:v>
+                  <c:v>miR-4664-3p</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>hsa-miR-1269a-3p</c:v>
+                  <c:v>miR-1269a-3p</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>hsa-miR-27a-5p</c:v>
+                  <c:v>miR-27a-5p</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>hsa-miR-361-5p</c:v>
+                  <c:v>miR-361-5p</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>hsa-miR-205-5p</c:v>
+                  <c:v>miR-205-5p</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>hsa-miR-574-3p</c:v>
+                  <c:v>miR-574-3p</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>hsa-miR-339-5p</c:v>
+                  <c:v>miR-339-5p</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>hsa-let-7e-5p</c:v>
+                  <c:v>let-7e-5p</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>hsa-miR-877-5p</c:v>
+                  <c:v>miR-877-5p</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>hsa-miR-31-5p</c:v>
+                  <c:v>miR-31-5p</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>hsa-miR-185-5p</c:v>
+                  <c:v>miR-185-5p</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>hsa-miR-6087-3p</c:v>
+                  <c:v>miR-6087-3p</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>hsa-miR-140-3p</c:v>
+                  <c:v>miR-140-3p</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1592,11 +1878,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="131680944"/>
-        <c:axId val="131681504"/>
+        <c:axId val="110308976"/>
+        <c:axId val="110309536"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="131680944"/>
+        <c:axId val="110308976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1636,7 +1922,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="131681504"/>
+        <c:crossAx val="110309536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1644,7 +1930,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="131681504"/>
+        <c:axId val="110309536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1752,7 +2038,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="131680944"/>
+        <c:crossAx val="110308976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2893,14 +3179,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>285749</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>301625</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>11907</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>428623</xdr:colOff>
+      <xdr:colOff>428622</xdr:colOff>
       <xdr:row>53</xdr:row>
       <xdr:rowOff>142874</xdr:rowOff>
     </xdr:to>
@@ -2929,8 +3215,8 @@
       <xdr:rowOff>5271</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>500062</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
       <xdr:row>53</xdr:row>
       <xdr:rowOff>149678</xdr:rowOff>
     </xdr:to>
@@ -3396,7 +3682,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="A3:B25" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="1">
     <pivotField axis="axisRow" dataField="1" showAll="0">
@@ -4229,8 +4515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D47" sqref="C1:D47"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4922,8 +5208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="X19" sqref="X19"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="AC39" sqref="AC39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4957,7 +5243,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>200</v>
       </c>
       <c r="B2">
         <v>-1.223157005</v>
@@ -4981,7 +5267,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>201</v>
       </c>
       <c r="B3">
         <v>-1.562564691</v>
@@ -5005,7 +5291,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>72</v>
+        <v>202</v>
       </c>
       <c r="B4">
         <v>-0.95927944300000001</v>
@@ -5029,7 +5315,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>203</v>
       </c>
       <c r="B5">
         <v>-0.77797941400000004</v>
@@ -5053,7 +5339,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>204</v>
       </c>
       <c r="B6">
         <v>-1.9551166449999999</v>
@@ -5077,7 +5363,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>205</v>
       </c>
       <c r="B7">
         <v>-0.947082808</v>
@@ -5101,7 +5387,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>58</v>
+        <v>206</v>
       </c>
       <c r="B8">
         <v>-0.48706788000000001</v>
@@ -5125,7 +5411,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>70</v>
+        <v>207</v>
       </c>
       <c r="B9">
         <v>0.12938370199999999</v>
@@ -5149,7 +5435,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>208</v>
       </c>
       <c r="B10">
         <v>-0.48860014899999998</v>
@@ -5173,7 +5459,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>209</v>
       </c>
       <c r="B11">
         <v>-0.61588601700000001</v>
@@ -5197,7 +5483,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>210</v>
       </c>
       <c r="B12">
         <v>-0.37888388499999998</v>
@@ -5221,7 +5507,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>211</v>
       </c>
       <c r="B13">
         <v>-1.402469124</v>
@@ -5245,7 +5531,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>212</v>
       </c>
       <c r="B14">
         <v>-0.222298051</v>
@@ -5269,7 +5555,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>64</v>
+        <v>213</v>
       </c>
       <c r="B15">
         <v>-0.31480536100000001</v>
@@ -5293,7 +5579,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>215</v>
       </c>
       <c r="B16">
         <v>-0.43443388999999999</v>
@@ -5317,7 +5603,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>92</v>
+        <v>214</v>
       </c>
       <c r="B17">
         <v>-0.74403107300000004</v>
@@ -5341,7 +5627,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>216</v>
       </c>
       <c r="B18">
         <v>-0.44454632799999999</v>
@@ -5365,7 +5651,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>217</v>
       </c>
       <c r="B19">
         <v>-0.18500887899999999</v>
@@ -5389,7 +5675,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>218</v>
       </c>
       <c r="B20">
         <v>-0.19973990599999999</v>
@@ -5413,7 +5699,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>61</v>
+        <v>219</v>
       </c>
       <c r="B21">
         <v>-0.45264487399999997</v>
@@ -5437,7 +5723,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>46</v>
+        <v>220</v>
       </c>
       <c r="B22">
         <v>0.43276021799999997</v>
@@ -5461,7 +5747,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>9</v>
+        <v>221</v>
       </c>
       <c r="B23">
         <v>-1.1623901780000001</v>
@@ -5485,7 +5771,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>222</v>
       </c>
       <c r="B24">
         <v>5.5999709999999996E-3</v>
@@ -5509,7 +5795,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>93</v>
+        <v>223</v>
       </c>
       <c r="B25">
         <v>-0.20924965400000001</v>
@@ -5533,7 +5819,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>51</v>
+        <v>224</v>
       </c>
       <c r="B26">
         <v>-0.252814282</v>
@@ -5557,7 +5843,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>85</v>
+        <v>225</v>
       </c>
       <c r="B27">
         <v>0.60879081999999995</v>
@@ -5581,7 +5867,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>71</v>
+        <v>226</v>
       </c>
       <c r="B28">
         <v>-0.34152768900000002</v>
@@ -5605,7 +5891,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>12</v>
+        <v>227</v>
       </c>
       <c r="B29">
         <v>-0.48544536399999999</v>
@@ -5629,7 +5915,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>49</v>
+        <v>228</v>
       </c>
       <c r="B30">
         <v>2.1252435E-2</v>
@@ -5653,7 +5939,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>63</v>
+        <v>229</v>
       </c>
       <c r="B31">
         <v>-0.42652590099999999</v>
@@ -5677,7 +5963,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>18</v>
+        <v>230</v>
       </c>
       <c r="B32">
         <v>-1.533154406</v>
@@ -5701,7 +5987,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>45</v>
+        <v>231</v>
       </c>
       <c r="B33">
         <v>0.58426337399999995</v>
@@ -5725,7 +6011,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>16</v>
+        <v>232</v>
       </c>
       <c r="B34">
         <v>-0.16015304</v>
@@ -5749,7 +6035,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>1</v>
+        <v>233</v>
       </c>
       <c r="B35">
         <v>-0.27989056200000001</v>
@@ -5773,7 +6059,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>32</v>
+        <v>234</v>
       </c>
       <c r="B36">
         <v>0.32928663000000002</v>
@@ -5797,7 +6083,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>82</v>
+        <v>235</v>
       </c>
       <c r="B37">
         <v>0.82698803600000004</v>
@@ -5821,7 +6107,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>86</v>
+        <v>236</v>
       </c>
       <c r="B38">
         <v>0.61049443800000003</v>
@@ -5845,7 +6131,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>79</v>
+        <v>237</v>
       </c>
       <c r="B39">
         <v>-0.22835254199999999</v>
@@ -5869,7 +6155,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>73</v>
+        <v>238</v>
       </c>
       <c r="B40">
         <v>-0.60084544299999998</v>
@@ -5893,7 +6179,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>66</v>
+        <v>239</v>
       </c>
       <c r="B41">
         <v>6.9556432000000001E-2</v>
@@ -5917,7 +6203,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>29</v>
+        <v>240</v>
       </c>
       <c r="B42">
         <v>0.12427057</v>
@@ -5941,7 +6227,7 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>40</v>
+        <v>241</v>
       </c>
       <c r="B43">
         <v>8.0416445000000003E-2</v>
@@ -5965,7 +6251,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>0</v>
+        <v>242</v>
       </c>
       <c r="B44">
         <v>0.14904394200000001</v>
@@ -5989,7 +6275,7 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>54</v>
+        <v>243</v>
       </c>
       <c r="B45">
         <v>2.8602762E-2</v>
@@ -6013,7 +6299,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>41</v>
+        <v>244</v>
       </c>
       <c r="B46">
         <v>9.8757786E-2</v>
@@ -6037,7 +6323,7 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>44</v>
+        <v>245</v>
       </c>
       <c r="B47">
         <v>-2.3422842999999999E-2</v>
@@ -6061,7 +6347,7 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>83</v>
+        <v>246</v>
       </c>
       <c r="B48">
         <v>0.24606352200000001</v>
@@ -6085,7 +6371,7 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>60</v>
+        <v>247</v>
       </c>
       <c r="B49">
         <v>-0.129881048</v>
@@ -6109,7 +6395,7 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>80</v>
+        <v>248</v>
       </c>
       <c r="B50">
         <v>-0.45410051200000001</v>
@@ -6133,7 +6419,7 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>94</v>
+        <v>249</v>
       </c>
       <c r="B51">
         <v>-0.121585174</v>
@@ -6157,7 +6443,7 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>35</v>
+        <v>250</v>
       </c>
       <c r="B52">
         <v>5.9112356999999997E-2</v>
@@ -6181,7 +6467,7 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>76</v>
+        <v>251</v>
       </c>
       <c r="B53">
         <v>-0.190361219</v>
@@ -6205,7 +6491,7 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>25</v>
+        <v>252</v>
       </c>
       <c r="B54">
         <v>-0.51722954799999998</v>
@@ -6229,7 +6515,7 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>67</v>
+        <v>253</v>
       </c>
       <c r="B55">
         <v>-2.723512742</v>
@@ -6253,7 +6539,7 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>69</v>
+        <v>254</v>
       </c>
       <c r="B56">
         <v>0.22979550500000001</v>
@@ -6277,7 +6563,7 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>2</v>
+        <v>255</v>
       </c>
       <c r="B57">
         <v>5.0671115000000003E-2</v>
@@ -6301,7 +6587,7 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>68</v>
+        <v>256</v>
       </c>
       <c r="B58">
         <v>-0.21169981399999999</v>
@@ -6325,7 +6611,7 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>10</v>
+        <v>257</v>
       </c>
       <c r="B59">
         <v>0.30833441299999997</v>
@@ -6349,7 +6635,7 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>77</v>
+        <v>258</v>
       </c>
       <c r="B60">
         <v>-0.25967409899999999</v>
@@ -6373,7 +6659,7 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>23</v>
+        <v>259</v>
       </c>
       <c r="B61">
         <v>0.96239914500000001</v>
@@ -6397,7 +6683,7 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>87</v>
+        <v>260</v>
       </c>
       <c r="B62">
         <v>0.60449654600000002</v>
@@ -6421,7 +6707,7 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>90</v>
+        <v>261</v>
       </c>
       <c r="B63">
         <v>8.4721245000000001E-2</v>
@@ -6445,7 +6731,7 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>91</v>
+        <v>262</v>
       </c>
       <c r="B64">
         <v>6.7932953000000004E-2</v>
@@ -6469,7 +6755,7 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>31</v>
+        <v>263</v>
       </c>
       <c r="B65">
         <v>0.53290821600000005</v>
@@ -6493,7 +6779,7 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>50</v>
+        <v>264</v>
       </c>
       <c r="B66">
         <v>0.50997529900000005</v>
@@ -6517,7 +6803,7 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>21</v>
+        <v>265</v>
       </c>
       <c r="B67">
         <v>-0.44582959100000003</v>
@@ -6541,7 +6827,7 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>3</v>
+        <v>266</v>
       </c>
       <c r="B68">
         <v>0.25792869899999998</v>
@@ -6565,7 +6851,7 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>26</v>
+        <v>267</v>
       </c>
       <c r="B69">
         <v>2.1619893000000001E-2</v>
@@ -6589,7 +6875,7 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>53</v>
+        <v>268</v>
       </c>
       <c r="B70">
         <v>0.36263913800000003</v>
@@ -6613,7 +6899,7 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>13</v>
+        <v>269</v>
       </c>
       <c r="B71">
         <v>-0.619031726</v>
@@ -6637,7 +6923,7 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>78</v>
+        <v>270</v>
       </c>
       <c r="B72">
         <v>-0.186120436</v>
@@ -6661,7 +6947,7 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>5</v>
+        <v>271</v>
       </c>
       <c r="B73">
         <v>0.20252894699999999</v>
@@ -6685,7 +6971,7 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>88</v>
+        <v>272</v>
       </c>
       <c r="B74">
         <v>0.383255982</v>
@@ -6709,7 +6995,7 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>47</v>
+        <v>273</v>
       </c>
       <c r="B75">
         <v>1.1148154260000001</v>
@@ -6733,7 +7019,7 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>11</v>
+        <v>274</v>
       </c>
       <c r="B76">
         <v>0.50641005100000003</v>
@@ -6757,7 +7043,7 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>56</v>
+        <v>275</v>
       </c>
       <c r="B77">
         <v>0.182605566</v>
@@ -6781,7 +7067,7 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>6</v>
+        <v>276</v>
       </c>
       <c r="B78">
         <v>0.26588340300000002</v>
@@ -6805,7 +7091,7 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>57</v>
+        <v>277</v>
       </c>
       <c r="B79">
         <v>0.52226385900000005</v>
@@ -6829,7 +7115,7 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>75</v>
+        <v>278</v>
       </c>
       <c r="B80">
         <v>0.27432846599999999</v>
@@ -6853,7 +7139,7 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>7</v>
+        <v>279</v>
       </c>
       <c r="B81">
         <v>0.57904302500000004</v>
@@ -6877,7 +7163,7 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>37</v>
+        <v>280</v>
       </c>
       <c r="B82">
         <v>0.64539867399999995</v>
@@ -6901,7 +7187,7 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>28</v>
+        <v>281</v>
       </c>
       <c r="B83">
         <v>-0.330954366</v>
@@ -6925,7 +7211,7 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>74</v>
+        <v>282</v>
       </c>
       <c r="B84">
         <v>0.22606744100000001</v>
@@ -6949,7 +7235,7 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>14</v>
+        <v>283</v>
       </c>
       <c r="B85">
         <v>0.73143989600000003</v>
@@ -6973,7 +7259,7 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>52</v>
+        <v>284</v>
       </c>
       <c r="B86">
         <v>0.77110563300000001</v>
@@ -6997,7 +7283,7 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>65</v>
+        <v>285</v>
       </c>
       <c r="B87">
         <v>0.58278252900000005</v>
@@ -7021,7 +7307,7 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>42</v>
+        <v>286</v>
       </c>
       <c r="B88">
         <v>4.4726688000000001E-2</v>
@@ -7045,7 +7331,7 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>81</v>
+        <v>287</v>
       </c>
       <c r="B89">
         <v>1.6036295190000001</v>
@@ -7069,7 +7355,7 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>62</v>
+        <v>288</v>
       </c>
       <c r="B90">
         <v>0.57608341299999999</v>
@@ -7093,7 +7379,7 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>4</v>
+        <v>289</v>
       </c>
       <c r="B91">
         <v>0.72033138600000002</v>
@@ -7117,7 +7403,7 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>89</v>
+        <v>290</v>
       </c>
       <c r="B92">
         <v>0.99416871900000003</v>
@@ -7141,7 +7427,7 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>59</v>
+        <v>291</v>
       </c>
       <c r="B93">
         <v>0.142897842</v>
@@ -7165,7 +7451,7 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>33</v>
+        <v>292</v>
       </c>
       <c r="B94">
         <v>0.55352254899999997</v>
@@ -7189,7 +7475,7 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>84</v>
+        <v>293</v>
       </c>
       <c r="B95">
         <v>0.90029047100000004</v>
@@ -7213,7 +7499,7 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>17</v>
+        <v>294</v>
       </c>
       <c r="B96">
         <v>0.740793374</v>
@@ -7246,6 +7532,792 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B96"/>
+  <sheetViews>
+    <sheetView topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="32" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>203</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>204</v>
+      </c>
+      <c r="B6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>205</v>
+      </c>
+      <c r="B7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>206</v>
+      </c>
+      <c r="B8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>208</v>
+      </c>
+      <c r="B10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>209</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>210</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>211</v>
+      </c>
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>212</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>213</v>
+      </c>
+      <c r="B15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>215</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>214</v>
+      </c>
+      <c r="B17" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>216</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>217</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>218</v>
+      </c>
+      <c r="B20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>219</v>
+      </c>
+      <c r="B21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>220</v>
+      </c>
+      <c r="B22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>221</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>222</v>
+      </c>
+      <c r="B24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>223</v>
+      </c>
+      <c r="B25" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>224</v>
+      </c>
+      <c r="B26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>225</v>
+      </c>
+      <c r="B27" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>226</v>
+      </c>
+      <c r="B28" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>227</v>
+      </c>
+      <c r="B29" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>228</v>
+      </c>
+      <c r="B30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>229</v>
+      </c>
+      <c r="B31" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>230</v>
+      </c>
+      <c r="B32" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>231</v>
+      </c>
+      <c r="B33" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>232</v>
+      </c>
+      <c r="B34" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>233</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>234</v>
+      </c>
+      <c r="B36" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>235</v>
+      </c>
+      <c r="B37" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>236</v>
+      </c>
+      <c r="B38" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>237</v>
+      </c>
+      <c r="B39" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>238</v>
+      </c>
+      <c r="B40" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>239</v>
+      </c>
+      <c r="B41" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>240</v>
+      </c>
+      <c r="B42" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>241</v>
+      </c>
+      <c r="B43" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>242</v>
+      </c>
+      <c r="B44" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>243</v>
+      </c>
+      <c r="B45" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>244</v>
+      </c>
+      <c r="B46" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>245</v>
+      </c>
+      <c r="B47" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>246</v>
+      </c>
+      <c r="B48" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>247</v>
+      </c>
+      <c r="B49" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>248</v>
+      </c>
+      <c r="B50" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>249</v>
+      </c>
+      <c r="B51" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>250</v>
+      </c>
+      <c r="B52" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>251</v>
+      </c>
+      <c r="B53" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>252</v>
+      </c>
+      <c r="B54" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>253</v>
+      </c>
+      <c r="B55" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>254</v>
+      </c>
+      <c r="B56" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>255</v>
+      </c>
+      <c r="B57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>256</v>
+      </c>
+      <c r="B58" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>257</v>
+      </c>
+      <c r="B59" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>258</v>
+      </c>
+      <c r="B60" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>259</v>
+      </c>
+      <c r="B61" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>260</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>261</v>
+      </c>
+      <c r="B63" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>262</v>
+      </c>
+      <c r="B64" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>263</v>
+      </c>
+      <c r="B65" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>264</v>
+      </c>
+      <c r="B66" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>265</v>
+      </c>
+      <c r="B67" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>266</v>
+      </c>
+      <c r="B68" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>267</v>
+      </c>
+      <c r="B69" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>268</v>
+      </c>
+      <c r="B70" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>269</v>
+      </c>
+      <c r="B71" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>270</v>
+      </c>
+      <c r="B72" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>271</v>
+      </c>
+      <c r="B73" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>272</v>
+      </c>
+      <c r="B74" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>273</v>
+      </c>
+      <c r="B75" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>274</v>
+      </c>
+      <c r="B76" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>275</v>
+      </c>
+      <c r="B77" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>276</v>
+      </c>
+      <c r="B78" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>277</v>
+      </c>
+      <c r="B79" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>278</v>
+      </c>
+      <c r="B80" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>279</v>
+      </c>
+      <c r="B81" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>280</v>
+      </c>
+      <c r="B82" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>281</v>
+      </c>
+      <c r="B83" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>282</v>
+      </c>
+      <c r="B84" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>283</v>
+      </c>
+      <c r="B85" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>284</v>
+      </c>
+      <c r="B86" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>285</v>
+      </c>
+      <c r="B87" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>286</v>
+      </c>
+      <c r="B88" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>287</v>
+      </c>
+      <c r="B89" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>288</v>
+      </c>
+      <c r="B90" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>289</v>
+      </c>
+      <c r="B91" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>290</v>
+      </c>
+      <c r="B92" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>291</v>
+      </c>
+      <c r="B93" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>292</v>
+      </c>
+      <c r="B94" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>293</v>
+      </c>
+      <c r="B95" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>294</v>
+      </c>
+      <c r="B96" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7256,7 +8328,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D37"/>
   <sheetViews>

--- a/Data/EXO/DESeq/CELLandEXOchangeMIR.xlsx
+++ b/Data/EXO/DESeq/CELLandEXOchangeMIR.xlsx
@@ -21,7 +21,7 @@
   </sheets>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId7"/>
+    <pivotCache cacheId="0" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -993,7 +993,17 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.2598578357862224"/>
+          <c:y val="2.0244220385534067E-2"/>
+          <c:w val="0.42357414186948533"/>
+          <c:h val="0.9160487274426079"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="bar"/>
         <c:grouping val="clustered"/>
@@ -1314,11 +1324,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:axId val="298564992"/>
-        <c:axId val="298563312"/>
+        <c:axId val="132694336"/>
+        <c:axId val="132694896"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="298564992"/>
+        <c:axId val="132694336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1346,7 +1356,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
@@ -1358,7 +1368,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="298563312"/>
+        <c:crossAx val="132694896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1366,9 +1376,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="298563312"/>
+        <c:axId val="132694896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="0"/>
+          <c:min val="-1.25"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1411,7 +1423,7 @@
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
                   </a:rPr>
-                  <a:t>FCexo-FCcell</a:t>
+                  <a:t>FCev-FCcell</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1474,13 +1486,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="298564992"/>
+        <c:crossAx val="132694336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="25400">
           <a:noFill/>
         </a:ln>
         <a:effectLst/>
@@ -1539,7 +1551,17 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.33526544217609683"/>
+          <c:y val="2.0465123246804721E-2"/>
+          <c:w val="0.45255746870356572"/>
+          <c:h val="0.91591815385465858"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="bar"/>
         <c:grouping val="clustered"/>
@@ -1877,12 +1899,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="182"/>
-        <c:axId val="110308976"/>
-        <c:axId val="110309536"/>
+        <c:gapWidth val="219"/>
+        <c:axId val="132697136"/>
+        <c:axId val="132697696"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="110308976"/>
+        <c:axId val="132697136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1906,11 +1928,11 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="b" anchorCtr="0"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
@@ -1922,17 +1944,19 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="110309536"/>
+        <c:crossAx val="132697696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
+        <c:lblAlgn val="l"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="110309536"/>
+        <c:axId val="132697696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1.25"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1975,12 +1999,19 @@
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
                   </a:rPr>
-                  <a:t>FCexo-FCcell</a:t>
+                  <a:t>FCev-FCcell</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.40045270755175716"/>
+              <c:y val="0.96324882183146221"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2038,7 +2069,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="110308976"/>
+        <c:crossAx val="132697136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3182,13 +3213,13 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>301625</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>11907</xdr:rowOff>
+      <xdr:rowOff>54241</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>428622</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
+      <xdr:rowOff>185208</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3212,13 +3243,13 @@
       <xdr:col>15</xdr:col>
       <xdr:colOff>476249</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>5271</xdr:rowOff>
+      <xdr:rowOff>47605</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>149678</xdr:rowOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>1512</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3682,7 +3713,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="A3:B25" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="1">
     <pivotField axis="axisRow" dataField="1" showAll="0">
@@ -5208,8 +5239,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G96"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="AC39" sqref="AC39"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="M59" sqref="M59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Data/EXO/DESeq/CELLandEXOchangeMIR.xlsx
+++ b/Data/EXO/DESeq/CELLandEXOchangeMIR.xlsx
@@ -1324,11 +1324,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:axId val="132694336"/>
-        <c:axId val="132694896"/>
+        <c:axId val="89993472"/>
+        <c:axId val="89994032"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="132694336"/>
+        <c:axId val="89993472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1368,7 +1368,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="132694896"/>
+        <c:crossAx val="89994032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1376,7 +1376,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="132694896"/>
+        <c:axId val="89994032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0"/>
@@ -1486,7 +1486,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="132694336"/>
+        <c:crossAx val="89993472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1588,88 +1588,88 @@
                   <c:v>miR-589-5p</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>miR-125a-3p</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>miR-320a-3p</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>miR-542-3p</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>miR-99b-3p</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>miR-191-5p</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>miR-500a-3p</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>miR-152-3p</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>miR-363-3p</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>miR-374a-5p</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>let-7d-3p</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>miR-374a-3p</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>miR-1180-3p</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>miR-502-3p</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>miR-149-5p</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>miR-671-5p</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>miR-92b-3p</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>miR-93-5p</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>miR-182-5p</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>miR-26b-5p</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>miR-148a-5p</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>let-7d-5p</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>miR-15b-5p</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>miR-28-3p</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>miR-125b-2-3p</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>miR-503-5p</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>let-7g-5p</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>miR-769-5p</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>miR-222-3p</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>miR-125a-3p</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>miR-30b-5p</c:v>
@@ -1744,88 +1744,88 @@
                   <c:v>2.4441530000000045E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>1.3871756000000013E-2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>2.7970545000000013E-2</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>3.7754113999999991E-2</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>6.0833671999999998E-2</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>7.9395872000000006E-2</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>9.8948546999999998E-2</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>0.10039513700000002</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>0.10126441400000002</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>0.110112923</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>0.11502519300000003</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>0.11682826499999999</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>0.139325225</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>0.14533732200000005</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>0.156101196</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>0.15759621400000001</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>0.17313677100000002</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>0.17334493200000006</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>0.23511245200000003</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>0.28774563699999994</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>0.291883636</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>0.33638363900000001</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>0.34213981000000004</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>0.34740137500000001</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>0.34976460199999998</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>0.37589916099999998</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>0.377342026</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>0.39467186200000004</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.40479491500000003</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>0.407698738</c:v>
@@ -1900,11 +1900,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:axId val="132697136"/>
-        <c:axId val="132697696"/>
+        <c:axId val="89996272"/>
+        <c:axId val="89996832"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="132697136"/>
+        <c:axId val="89996272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1944,7 +1944,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="132697696"/>
+        <c:crossAx val="89996832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="l"/>
@@ -1952,7 +1952,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="132697696"/>
+        <c:axId val="89996832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.25"/>
@@ -2069,7 +2069,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="132697136"/>
+        <c:crossAx val="89996272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5239,8 +5239,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M59" sqref="M59"/>
+    <sheetView tabSelected="1" topLeftCell="H31" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5292,7 +5292,7 @@
         <v>0.67717561999999998</v>
       </c>
       <c r="G2">
-        <f t="shared" ref="G2:G33" si="0">B2-E2</f>
+        <f>B2-E2</f>
         <v>-1.0788773300000001</v>
       </c>
     </row>
@@ -5316,7 +5316,7 @@
         <v>0.104495879</v>
       </c>
       <c r="G3">
-        <f t="shared" si="0"/>
+        <f>B3-E3</f>
         <v>-0.96686033099999991</v>
       </c>
     </row>
@@ -5340,7 +5340,7 @@
         <v>0.99601082799999996</v>
       </c>
       <c r="G4">
-        <f t="shared" si="0"/>
+        <f>B4-E4</f>
         <v>-0.96121769800000001</v>
       </c>
     </row>
@@ -5364,7 +5364,7 @@
         <v>0.81242248399999994</v>
       </c>
       <c r="G5">
-        <f t="shared" si="0"/>
+        <f>B5-E5</f>
         <v>-0.86647752300000003</v>
       </c>
     </row>
@@ -5388,7 +5388,7 @@
         <v>9.380846E-3</v>
       </c>
       <c r="G6">
-        <f t="shared" si="0"/>
+        <f>B6-E6</f>
         <v>-0.82132180799999999</v>
       </c>
     </row>
@@ -5412,7 +5412,7 @@
         <v>0.58084470700000002</v>
       </c>
       <c r="G7">
-        <f t="shared" si="0"/>
+        <f>B7-E7</f>
         <v>-0.74530306000000002</v>
       </c>
     </row>
@@ -5436,7 +5436,7 @@
         <v>0.57635493599999998</v>
       </c>
       <c r="G8">
-        <f t="shared" si="0"/>
+        <f>B8-E8</f>
         <v>-0.69442926599999999</v>
       </c>
     </row>
@@ -5460,7 +5460,7 @@
         <v>5.3648556999999999E-2</v>
       </c>
       <c r="G9">
-        <f t="shared" si="0"/>
+        <f>B9-E9</f>
         <v>-0.68679411200000007</v>
       </c>
     </row>
@@ -5484,7 +5484,7 @@
         <v>0.68801784700000002</v>
       </c>
       <c r="G10">
-        <f t="shared" si="0"/>
+        <f>B10-E10</f>
         <v>-0.62734066399999999</v>
       </c>
     </row>
@@ -5508,7 +5508,7 @@
         <v>0.90263553600000002</v>
       </c>
       <c r="G11">
-        <f t="shared" si="0"/>
+        <f>B11-E11</f>
         <v>-0.57271289800000003</v>
       </c>
     </row>
@@ -5532,7 +5532,7 @@
         <v>0.62060684499999996</v>
       </c>
       <c r="G12">
-        <f t="shared" si="0"/>
+        <f>B12-E12</f>
         <v>-0.55366148500000001</v>
       </c>
     </row>
@@ -5556,7 +5556,7 @@
         <v>3.7039945999999997E-2</v>
       </c>
       <c r="G13">
-        <f t="shared" si="0"/>
+        <f>B13-E13</f>
         <v>-0.53005252000000003</v>
       </c>
     </row>
@@ -5580,7 +5580,7 @@
         <v>0.34908719799999999</v>
       </c>
       <c r="G14">
-        <f t="shared" si="0"/>
+        <f>B14-E14</f>
         <v>-0.525355605</v>
       </c>
     </row>
@@ -5604,7 +5604,7 @@
         <v>0.59993573499999997</v>
       </c>
       <c r="G15">
-        <f t="shared" si="0"/>
+        <f>B15-E15</f>
         <v>-0.51094339600000005</v>
       </c>
     </row>
@@ -5628,7 +5628,7 @@
         <v>0.83803998400000002</v>
       </c>
       <c r="G16">
-        <f t="shared" si="0"/>
+        <f>B16-E16</f>
         <v>-0.50996328099999999</v>
       </c>
     </row>
@@ -5652,7 +5652,7 @@
         <v>0.48946355699999999</v>
       </c>
       <c r="G17">
-        <f t="shared" si="0"/>
+        <f>B17-E17</f>
         <v>-0.48496756100000005</v>
       </c>
     </row>
@@ -5676,7 +5676,7 @@
         <v>0.92254895999999997</v>
       </c>
       <c r="G18">
-        <f t="shared" si="0"/>
+        <f>B18-E18</f>
         <v>-0.480883587</v>
       </c>
     </row>
@@ -5700,7 +5700,7 @@
         <v>0.53232375899999995</v>
       </c>
       <c r="G19">
-        <f t="shared" si="0"/>
+        <f>B19-E19</f>
         <v>-0.45776399700000003</v>
       </c>
     </row>
@@ -5724,7 +5724,7 @@
         <v>0.55640209200000001</v>
       </c>
       <c r="G20">
-        <f t="shared" si="0"/>
+        <f>B20-E20</f>
         <v>-0.45277708999999999</v>
       </c>
     </row>
@@ -5748,7 +5748,7 @@
         <v>0.97891889700000001</v>
       </c>
       <c r="G21">
-        <f t="shared" si="0"/>
+        <f>B21-E21</f>
         <v>-0.44367206999999997</v>
       </c>
     </row>
@@ -5772,7 +5772,7 @@
         <v>2.4196919000000001E-2</v>
       </c>
       <c r="G22">
-        <f t="shared" si="0"/>
+        <f>B22-E22</f>
         <v>-0.42464007800000003</v>
       </c>
     </row>
@@ -5796,7 +5796,7 @@
         <v>7.0094975000000004E-2</v>
       </c>
       <c r="G23">
-        <f t="shared" si="0"/>
+        <f>B23-E23</f>
         <v>-0.4147657050000001</v>
       </c>
     </row>
@@ -5820,7 +5820,7 @@
         <v>0.30174844699999998</v>
       </c>
       <c r="G24">
-        <f t="shared" si="0"/>
+        <f>B24-E24</f>
         <v>-0.403301358</v>
       </c>
     </row>
@@ -5844,7 +5844,7 @@
         <v>0.60574171099999996</v>
       </c>
       <c r="G25">
-        <f t="shared" si="0"/>
+        <f>B25-E25</f>
         <v>-0.38711187800000002</v>
       </c>
     </row>
@@ -5868,7 +5868,7 @@
         <v>0.67739903300000004</v>
       </c>
       <c r="G26">
-        <f t="shared" si="0"/>
+        <f>B26-E26</f>
         <v>-0.38626155200000001</v>
       </c>
     </row>
@@ -5892,7 +5892,7 @@
         <v>7.7697469999999996E-3</v>
       </c>
       <c r="G27">
-        <f t="shared" si="0"/>
+        <f>B27-E27</f>
         <v>-0.37821630700000008</v>
       </c>
     </row>
@@ -5916,7 +5916,7 @@
         <v>0.93412914499999999</v>
       </c>
       <c r="G28">
-        <f t="shared" si="0"/>
+        <f>B28-E28</f>
         <v>-0.370168689</v>
       </c>
     </row>
@@ -5940,7 +5940,7 @@
         <v>0.72017143900000002</v>
       </c>
       <c r="G29">
-        <f t="shared" si="0"/>
+        <f>B29-E29</f>
         <v>-0.34777180899999999</v>
       </c>
     </row>
@@ -5964,7 +5964,7 @@
         <v>0.30334268599999997</v>
       </c>
       <c r="G30">
-        <f t="shared" si="0"/>
+        <f>B30-E30</f>
         <v>-0.31340579800000001</v>
       </c>
     </row>
@@ -5988,7 +5988,7 @@
         <v>0.76683822800000001</v>
       </c>
       <c r="G31">
-        <f t="shared" si="0"/>
+        <f>B31-E31</f>
         <v>-0.29950746299999997</v>
       </c>
     </row>
@@ -6012,7 +6012,7 @@
         <v>2.9942279999999998E-3</v>
       </c>
       <c r="G32">
-        <f t="shared" si="0"/>
+        <f>B32-E32</f>
         <v>-0.26012270999999987</v>
       </c>
     </row>
@@ -6036,7 +6036,7 @@
         <v>3.1298523000000002E-2</v>
       </c>
       <c r="G33">
-        <f t="shared" si="0"/>
+        <f>B33-E33</f>
         <v>-0.25509517900000001</v>
       </c>
     </row>
@@ -6060,7 +6060,7 @@
         <v>0.79091770900000002</v>
       </c>
       <c r="G34">
-        <f t="shared" ref="G34:G65" si="1">B34-E34</f>
+        <f>B34-E34</f>
         <v>-0.25339141399999998</v>
       </c>
     </row>
@@ -6084,7 +6084,7 @@
         <v>0.87292707300000005</v>
       </c>
       <c r="G35">
-        <f t="shared" si="1"/>
+        <f>B35-E35</f>
         <v>-0.21806029400000002</v>
       </c>
     </row>
@@ -6108,7 +6108,7 @@
         <v>0.187443472</v>
       </c>
       <c r="G36">
-        <f t="shared" si="1"/>
+        <f>B36-E36</f>
         <v>-0.16011224699999999</v>
       </c>
     </row>
@@ -6132,7 +6132,7 @@
         <v>1.4808994000000001E-2</v>
       </c>
       <c r="G37">
-        <f t="shared" si="1"/>
+        <f>B37-E37</f>
         <v>-0.14365918</v>
       </c>
     </row>
@@ -6156,7 +6156,7 @@
         <v>9.0609997999999997E-2</v>
       </c>
       <c r="G38">
-        <f t="shared" si="1"/>
+        <f>B38-E38</f>
         <v>-0.12774120599999994</v>
       </c>
     </row>
@@ -6180,7 +6180,7 @@
         <v>0.73862243699999997</v>
       </c>
       <c r="G39">
-        <f t="shared" si="1"/>
+        <f>B39-E39</f>
         <v>-0.10560790899999999</v>
       </c>
     </row>
@@ -6204,7 +6204,7 @@
         <v>0.206460176</v>
       </c>
       <c r="G40">
-        <f t="shared" si="1"/>
+        <f>B40-E40</f>
         <v>-9.7481456000000022E-2</v>
       </c>
     </row>
@@ -6228,7 +6228,7 @@
         <v>0.67337934799999999</v>
       </c>
       <c r="G41">
-        <f t="shared" si="1"/>
+        <f>B41-E41</f>
         <v>-9.3199967999999994E-2</v>
       </c>
     </row>
@@ -6252,7 +6252,7 @@
         <v>0.60717562300000005</v>
       </c>
       <c r="G42">
-        <f t="shared" si="1"/>
+        <f>B42-E42</f>
         <v>-7.2484027000000006E-2</v>
       </c>
     </row>
@@ -6276,7 +6276,7 @@
         <v>0.72518625000000003</v>
       </c>
       <c r="G43">
-        <f t="shared" si="1"/>
+        <f>B43-E43</f>
         <v>-5.572923199999999E-2</v>
       </c>
     </row>
@@ -6300,7 +6300,7 @@
         <v>0.60700337599999998</v>
       </c>
       <c r="G44">
-        <f t="shared" si="1"/>
+        <f>B44-E44</f>
         <v>-5.3155238999999993E-2</v>
       </c>
     </row>
@@ -6324,7 +6324,7 @@
         <v>0.82863056800000001</v>
       </c>
       <c r="G45">
-        <f t="shared" si="1"/>
+        <f>B45-E45</f>
         <v>-5.2563092999999991E-2</v>
       </c>
     </row>
@@ -6348,7 +6348,7 @@
         <v>0.71059109399999998</v>
       </c>
       <c r="G46">
-        <f t="shared" si="1"/>
+        <f>B46-E46</f>
         <v>-3.6404852000000001E-2</v>
       </c>
     </row>
@@ -6372,7 +6372,7 @@
         <v>0.99827438499999999</v>
       </c>
       <c r="G47">
-        <f t="shared" si="1"/>
+        <f>B47-E47</f>
         <v>-2.2562885999999997E-2</v>
       </c>
     </row>
@@ -6396,680 +6396,679 @@
         <v>0.49437141800000001</v>
       </c>
       <c r="G48">
-        <f t="shared" si="1"/>
+        <f>B48-E48</f>
         <v>2.4441530000000045E-3</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>247</v>
+        <v>274</v>
       </c>
       <c r="B49">
-        <v>-0.129881048</v>
+        <v>0.50641005100000003</v>
       </c>
       <c r="C49">
-        <v>0.67487382299999998</v>
+        <v>0.306840373</v>
       </c>
       <c r="D49" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="E49">
-        <v>-0.14375280400000001</v>
+        <v>0.10161513599999999</v>
       </c>
       <c r="F49">
-        <v>0.71480287200000003</v>
+        <v>0.81080669100000002</v>
       </c>
       <c r="G49">
-        <f t="shared" si="1"/>
-        <v>1.3871756000000013E-2</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B50">
-        <v>-0.45410051200000001</v>
+        <v>-0.129881048</v>
       </c>
       <c r="C50">
-        <v>0.29922345700000003</v>
+        <v>0.67487382299999998</v>
       </c>
       <c r="D50" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="E50">
-        <v>-0.48207105700000003</v>
+        <v>-0.14375280400000001</v>
       </c>
       <c r="F50">
-        <v>0.239796601</v>
+        <v>0.71480287200000003</v>
       </c>
       <c r="G50">
-        <f t="shared" si="1"/>
-        <v>2.7970545000000013E-2</v>
+        <f>B50-E50</f>
+        <v>1.3871756000000013E-2</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B51">
-        <v>-0.121585174</v>
+        <v>-0.45410051200000001</v>
       </c>
       <c r="C51">
-        <v>0.70028423500000003</v>
+        <v>0.29922345700000003</v>
       </c>
       <c r="D51" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="E51">
-        <v>-0.159339288</v>
+        <v>-0.48207105700000003</v>
       </c>
       <c r="F51">
-        <v>0.63315984199999997</v>
+        <v>0.239796601</v>
       </c>
       <c r="G51">
-        <f t="shared" si="1"/>
-        <v>3.7754113999999991E-2</v>
+        <f>B51-E51</f>
+        <v>2.7970545000000013E-2</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B52">
-        <v>5.9112356999999997E-2</v>
+        <v>-0.121585174</v>
       </c>
       <c r="C52">
-        <v>0.86630855399999995</v>
+        <v>0.70028423500000003</v>
       </c>
       <c r="D52" t="s">
-        <v>35</v>
+        <v>94</v>
       </c>
       <c r="E52">
-        <v>-1.721315E-3</v>
+        <v>-0.159339288</v>
       </c>
       <c r="F52">
-        <v>0.99627330300000005</v>
+        <v>0.63315984199999997</v>
       </c>
       <c r="G52">
-        <f t="shared" si="1"/>
-        <v>6.0833671999999998E-2</v>
+        <f>B52-E52</f>
+        <v>3.7754113999999991E-2</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B53">
-        <v>-0.190361219</v>
+        <v>5.9112356999999997E-2</v>
       </c>
       <c r="C53">
-        <v>0.64186514699999997</v>
+        <v>0.86630855399999995</v>
       </c>
       <c r="D53" t="s">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="E53">
-        <v>-0.269757091</v>
+        <v>-1.721315E-3</v>
       </c>
       <c r="F53">
-        <v>0.46888577999999997</v>
+        <v>0.99627330300000005</v>
       </c>
       <c r="G53">
-        <f t="shared" si="1"/>
-        <v>7.9395872000000006E-2</v>
+        <f>B53-E53</f>
+        <v>6.0833671999999998E-2</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B54">
-        <v>-0.51722954799999998</v>
+        <v>-0.190361219</v>
       </c>
       <c r="C54">
-        <v>0.16732540700000001</v>
+        <v>0.64186514699999997</v>
       </c>
       <c r="D54" t="s">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="E54">
-        <v>-0.61617809499999998</v>
+        <v>-0.269757091</v>
       </c>
       <c r="F54">
-        <v>0.120082415</v>
+        <v>0.46888577999999997</v>
       </c>
       <c r="G54">
-        <f t="shared" si="1"/>
-        <v>9.8948546999999998E-2</v>
+        <f>B54-E54</f>
+        <v>7.9395872000000006E-2</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B55">
-        <v>-2.723512742</v>
-      </c>
-      <c r="C55" s="1">
-        <v>1.5300000000000001E-7</v>
+        <v>-0.51722954799999998</v>
+      </c>
+      <c r="C55">
+        <v>0.16732540700000001</v>
       </c>
       <c r="D55" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="E55">
-        <v>-2.8239078790000001</v>
-      </c>
-      <c r="F55" s="1">
-        <v>2.4099999999999999E-11</v>
+        <v>-0.61617809499999998</v>
+      </c>
+      <c r="F55">
+        <v>0.120082415</v>
       </c>
       <c r="G55">
-        <f t="shared" si="1"/>
-        <v>0.10039513700000002</v>
+        <f>B55-E55</f>
+        <v>9.8948546999999998E-2</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B56">
-        <v>0.22979550500000001</v>
-      </c>
-      <c r="C56">
-        <v>0.58555680399999999</v>
+        <v>-2.723512742</v>
+      </c>
+      <c r="C56" s="1">
+        <v>1.5300000000000001E-7</v>
       </c>
       <c r="D56" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E56">
-        <v>0.12853109099999999</v>
-      </c>
-      <c r="F56">
-        <v>0.70981437700000005</v>
+        <v>-2.8239078790000001</v>
+      </c>
+      <c r="F56" s="1">
+        <v>2.4099999999999999E-11</v>
       </c>
       <c r="G56">
-        <f t="shared" si="1"/>
-        <v>0.10126441400000002</v>
+        <f>B56-E56</f>
+        <v>0.10039513700000002</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B57">
-        <v>5.0671115000000003E-2</v>
+        <v>0.22979550500000001</v>
       </c>
       <c r="C57">
-        <v>0.89664567299999998</v>
+        <v>0.58555680399999999</v>
       </c>
       <c r="D57" t="s">
-        <v>2</v>
+        <v>69</v>
       </c>
       <c r="E57">
-        <v>-5.9441807999999999E-2</v>
+        <v>0.12853109099999999</v>
       </c>
       <c r="F57">
-        <v>0.86792948000000003</v>
+        <v>0.70981437700000005</v>
       </c>
       <c r="G57">
-        <f t="shared" si="1"/>
-        <v>0.110112923</v>
+        <f>B57-E57</f>
+        <v>0.10126441400000002</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B58">
-        <v>-0.21169981399999999</v>
+        <v>5.0671115000000003E-2</v>
       </c>
       <c r="C58">
-        <v>0.66631689599999999</v>
+        <v>0.89664567299999998</v>
       </c>
       <c r="D58" t="s">
-        <v>68</v>
+        <v>2</v>
       </c>
       <c r="E58">
-        <v>-0.32672500700000001</v>
+        <v>-5.9441807999999999E-2</v>
       </c>
       <c r="F58">
-        <v>0.44134823200000001</v>
+        <v>0.86792948000000003</v>
       </c>
       <c r="G58">
-        <f t="shared" si="1"/>
-        <v>0.11502519300000003</v>
+        <f>B58-E58</f>
+        <v>0.110112923</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B59">
-        <v>0.30833441299999997</v>
+        <v>-0.21169981399999999</v>
       </c>
       <c r="C59">
-        <v>0.406161412</v>
+        <v>0.66631689599999999</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="E59">
-        <v>0.19150614799999999</v>
+        <v>-0.32672500700000001</v>
       </c>
       <c r="F59">
-        <v>0.60520043000000001</v>
+        <v>0.44134823200000001</v>
       </c>
       <c r="G59">
-        <f t="shared" si="1"/>
-        <v>0.11682826499999999</v>
+        <f>B59-E59</f>
+        <v>0.11502519300000003</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B60">
-        <v>-0.25967409899999999</v>
+        <v>0.30833441299999997</v>
       </c>
       <c r="C60">
-        <v>0.49524067799999999</v>
+        <v>0.406161412</v>
       </c>
       <c r="D60" t="s">
-        <v>77</v>
+        <v>10</v>
       </c>
       <c r="E60">
-        <v>-0.39899932399999999</v>
+        <v>0.19150614799999999</v>
       </c>
       <c r="F60">
-        <v>0.31132970199999999</v>
+        <v>0.60520043000000001</v>
       </c>
       <c r="G60">
-        <f t="shared" si="1"/>
-        <v>0.139325225</v>
+        <f>B60-E60</f>
+        <v>0.11682826499999999</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B61">
-        <v>0.96239914500000001</v>
+        <v>-0.25967409899999999</v>
       </c>
       <c r="C61">
-        <v>4.9688077999999997E-2</v>
+        <v>0.49524067799999999</v>
       </c>
       <c r="D61" t="s">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="E61">
-        <v>0.81706182299999996</v>
+        <v>-0.39899932399999999</v>
       </c>
       <c r="F61">
-        <v>2.3663599E-2</v>
+        <v>0.31132970199999999</v>
       </c>
       <c r="G61">
-        <f t="shared" si="1"/>
-        <v>0.14533732200000005</v>
+        <f>B61-E61</f>
+        <v>0.139325225</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B62">
-        <v>0.60449654600000002</v>
+        <v>0.96239914500000001</v>
       </c>
       <c r="C62">
-        <v>0.31227360199999998</v>
+        <v>4.9688077999999997E-2</v>
       </c>
       <c r="D62" t="s">
-        <v>87</v>
+        <v>23</v>
       </c>
       <c r="E62">
-        <v>0.44839535000000003</v>
+        <v>0.81706182299999996</v>
       </c>
       <c r="F62">
-        <v>0.26306368600000002</v>
+        <v>2.3663599E-2</v>
       </c>
       <c r="G62">
-        <f t="shared" si="1"/>
-        <v>0.156101196</v>
+        <f>B62-E62</f>
+        <v>0.14533732200000005</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B63">
-        <v>8.4721245000000001E-2</v>
+        <v>0.60449654600000002</v>
       </c>
       <c r="C63">
-        <v>0.79287436600000005</v>
+        <v>0.31227360199999998</v>
       </c>
       <c r="D63" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E63">
-        <v>-7.2874968999999998E-2</v>
+        <v>0.44839535000000003</v>
       </c>
       <c r="F63">
-        <v>0.84282715900000005</v>
+        <v>0.26306368600000002</v>
       </c>
       <c r="G63">
-        <f t="shared" si="1"/>
-        <v>0.15759621400000001</v>
+        <f>B63-E63</f>
+        <v>0.156101196</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B64">
-        <v>6.7932953000000004E-2</v>
+        <v>8.4721245000000001E-2</v>
       </c>
       <c r="C64">
-        <v>0.84327552100000003</v>
+        <v>0.79287436600000005</v>
       </c>
       <c r="D64" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E64">
-        <v>-0.105203818</v>
+        <v>-7.2874968999999998E-2</v>
       </c>
       <c r="F64">
-        <v>0.77683234999999995</v>
+        <v>0.84282715900000005</v>
       </c>
       <c r="G64">
-        <f t="shared" si="1"/>
-        <v>0.17313677100000002</v>
+        <f>B64-E64</f>
+        <v>0.15759621400000001</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B65">
-        <v>0.53290821600000005</v>
+        <v>6.7932953000000004E-2</v>
       </c>
       <c r="C65">
-        <v>0.25158692599999999</v>
+        <v>0.84327552100000003</v>
       </c>
       <c r="D65" t="s">
-        <v>31</v>
+        <v>91</v>
       </c>
       <c r="E65">
-        <v>0.35956328399999998</v>
+        <v>-0.105203818</v>
       </c>
       <c r="F65">
-        <v>0.38094310300000001</v>
+        <v>0.77683234999999995</v>
       </c>
       <c r="G65">
-        <f t="shared" si="1"/>
-        <v>0.17334493200000006</v>
+        <f>B65-E65</f>
+        <v>0.17313677100000002</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B66">
-        <v>0.50997529900000005</v>
+        <v>0.53290821600000005</v>
       </c>
       <c r="C66">
-        <v>0.12126985899999999</v>
+        <v>0.25158692599999999</v>
       </c>
       <c r="D66" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="E66">
-        <v>0.27486284700000002</v>
+        <v>0.35956328399999998</v>
       </c>
       <c r="F66">
-        <v>0.46239567599999998</v>
+        <v>0.38094310300000001</v>
       </c>
       <c r="G66">
-        <f t="shared" ref="G66:G96" si="2">B66-E66</f>
-        <v>0.23511245200000003</v>
+        <f>B66-E66</f>
+        <v>0.17334493200000006</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B67">
-        <v>-0.44582959100000003</v>
+        <v>0.50997529900000005</v>
       </c>
       <c r="C67">
-        <v>0.25003906100000001</v>
+        <v>0.12126985899999999</v>
       </c>
       <c r="D67" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="E67">
-        <v>-0.73357522799999997</v>
+        <v>0.27486284700000002</v>
       </c>
       <c r="F67">
-        <v>5.5780822000000001E-2</v>
+        <v>0.46239567599999998</v>
       </c>
       <c r="G67">
-        <f t="shared" si="2"/>
-        <v>0.28774563699999994</v>
+        <f>B67-E67</f>
+        <v>0.23511245200000003</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B68">
-        <v>0.25792869899999998</v>
+        <v>-0.44582959100000003</v>
       </c>
       <c r="C68">
-        <v>0.53641084000000006</v>
+        <v>0.25003906100000001</v>
       </c>
       <c r="D68" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="E68">
-        <v>-3.3954936999999998E-2</v>
+        <v>-0.73357522799999997</v>
       </c>
       <c r="F68">
-        <v>0.93112546699999998</v>
+        <v>5.5780822000000001E-2</v>
       </c>
       <c r="G68">
-        <f t="shared" si="2"/>
-        <v>0.291883636</v>
+        <f>B68-E68</f>
+        <v>0.28774563699999994</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B69">
-        <v>2.1619893000000001E-2</v>
+        <v>0.25792869899999998</v>
       </c>
       <c r="C69">
-        <v>0.96368170799999997</v>
+        <v>0.53641084000000006</v>
       </c>
       <c r="D69" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="E69">
-        <v>-0.31476374600000001</v>
+        <v>-3.3954936999999998E-2</v>
       </c>
       <c r="F69">
-        <v>0.45335713700000002</v>
+        <v>0.93112546699999998</v>
       </c>
       <c r="G69">
-        <f t="shared" si="2"/>
-        <v>0.33638363900000001</v>
+        <f>B69-E69</f>
+        <v>0.291883636</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B70">
-        <v>0.36263913800000003</v>
+        <v>2.1619893000000001E-2</v>
       </c>
       <c r="C70">
-        <v>0.22876135</v>
+        <v>0.96368170799999997</v>
       </c>
       <c r="D70" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="E70">
-        <v>2.0499328000000001E-2</v>
+        <v>-0.31476374600000001</v>
       </c>
       <c r="F70">
-        <v>0.95050616600000004</v>
+        <v>0.45335713700000002</v>
       </c>
       <c r="G70">
-        <f t="shared" si="2"/>
-        <v>0.34213981000000004</v>
+        <f>B70-E70</f>
+        <v>0.33638363900000001</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B71">
-        <v>-0.619031726</v>
+        <v>0.36263913800000003</v>
       </c>
       <c r="C71">
-        <v>0.159363957</v>
+        <v>0.22876135</v>
       </c>
       <c r="D71" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="E71">
-        <v>-0.96643310100000002</v>
+        <v>2.0499328000000001E-2</v>
       </c>
       <c r="F71">
-        <v>2.4998016000000001E-2</v>
+        <v>0.95050616600000004</v>
       </c>
       <c r="G71">
-        <f t="shared" si="2"/>
-        <v>0.34740137500000001</v>
+        <f>B71-E71</f>
+        <v>0.34213981000000004</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B72">
-        <v>-0.186120436</v>
+        <v>-0.619031726</v>
       </c>
       <c r="C72">
-        <v>0.68670643899999995</v>
+        <v>0.159363957</v>
       </c>
       <c r="D72" t="s">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="E72">
-        <v>-0.53588503799999998</v>
+        <v>-0.96643310100000002</v>
       </c>
       <c r="F72">
-        <v>0.155953324</v>
+        <v>2.4998016000000001E-2</v>
       </c>
       <c r="G72">
-        <f t="shared" si="2"/>
-        <v>0.34976460199999998</v>
+        <f>B72-E72</f>
+        <v>0.34740137500000001</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B73">
-        <v>0.20252894699999999</v>
+        <v>-0.186120436</v>
       </c>
       <c r="C73">
-        <v>0.57858818000000001</v>
+        <v>0.68670643899999995</v>
       </c>
       <c r="D73" t="s">
-        <v>5</v>
+        <v>78</v>
       </c>
       <c r="E73">
-        <v>-0.17337021399999999</v>
+        <v>-0.53588503799999998</v>
       </c>
       <c r="F73">
-        <v>0.66536562099999996</v>
+        <v>0.155953324</v>
       </c>
       <c r="G73">
-        <f t="shared" si="2"/>
-        <v>0.37589916099999998</v>
+        <f>B73-E73</f>
+        <v>0.34976460199999998</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B74">
-        <v>0.383255982</v>
+        <v>0.20252894699999999</v>
       </c>
       <c r="C74">
-        <v>0.25428650000000003</v>
+        <v>0.57858818000000001</v>
       </c>
       <c r="D74" t="s">
-        <v>88</v>
+        <v>5</v>
       </c>
       <c r="E74">
-        <v>5.9139559999999997E-3</v>
+        <v>-0.17337021399999999</v>
       </c>
       <c r="F74">
-        <v>0.98660423200000003</v>
+        <v>0.66536562099999996</v>
       </c>
       <c r="G74">
-        <f t="shared" si="2"/>
-        <v>0.377342026</v>
+        <f>B74-E74</f>
+        <v>0.37589916099999998</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B75">
-        <v>1.1148154260000001</v>
+        <v>0.383255982</v>
       </c>
       <c r="C75">
-        <v>1.4682287E-2</v>
+        <v>0.25428650000000003</v>
       </c>
       <c r="D75" t="s">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="E75">
-        <v>0.72014356400000001</v>
+        <v>5.9139559999999997E-3</v>
       </c>
       <c r="F75">
-        <v>6.8252335999999997E-2</v>
+        <v>0.98660423200000003</v>
       </c>
       <c r="G75">
-        <f t="shared" si="2"/>
-        <v>0.39467186200000004</v>
+        <f>B75-E75</f>
+        <v>0.377342026</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B76">
-        <v>0.50641005100000003</v>
+        <v>1.1148154260000001</v>
       </c>
       <c r="C76">
-        <v>0.306840373</v>
+        <v>1.4682287E-2</v>
       </c>
       <c r="D76" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="E76">
-        <v>0.10161513599999999</v>
+        <v>0.72014356400000001</v>
       </c>
       <c r="F76">
-        <v>0.81080669100000002</v>
+        <v>6.8252335999999997E-2</v>
       </c>
       <c r="G76">
-        <f t="shared" si="2"/>
-        <v>0.40479491500000003</v>
+        <f>B76-E76</f>
+        <v>0.39467186200000004</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -7092,7 +7091,7 @@
         <v>0.560054838</v>
       </c>
       <c r="G77">
-        <f t="shared" si="2"/>
+        <f>B77-E77</f>
         <v>0.407698738</v>
       </c>
     </row>
@@ -7116,7 +7115,7 @@
         <v>0.69594817899999994</v>
       </c>
       <c r="G78">
-        <f t="shared" si="2"/>
+        <f>B78-E78</f>
         <v>0.42735324900000005</v>
       </c>
     </row>
@@ -7140,7 +7139,7 @@
         <v>0.85335146299999998</v>
       </c>
       <c r="G79">
-        <f t="shared" si="2"/>
+        <f>B79-E79</f>
         <v>0.45020549200000004</v>
       </c>
     </row>
@@ -7164,7 +7163,7 @@
         <v>0.62603895300000001</v>
       </c>
       <c r="G80">
-        <f t="shared" si="2"/>
+        <f>B80-E80</f>
         <v>0.47149108200000001</v>
       </c>
     </row>
@@ -7188,7 +7187,7 @@
         <v>0.78657626400000002</v>
       </c>
       <c r="G81">
-        <f t="shared" si="2"/>
+        <f>B81-E81</f>
         <v>0.48537711400000005</v>
       </c>
     </row>
@@ -7212,7 +7211,7 @@
         <v>0.77420806499999995</v>
       </c>
       <c r="G82">
-        <f t="shared" si="2"/>
+        <f>B82-E82</f>
         <v>0.52935951999999997</v>
       </c>
     </row>
@@ -7236,7 +7235,7 @@
         <v>2.5638784000000001E-2</v>
       </c>
       <c r="G83">
-        <f t="shared" si="2"/>
+        <f>B83-E83</f>
         <v>0.56681797199999995</v>
       </c>
     </row>
@@ -7260,7 +7259,7 @@
         <v>0.38566336299999998</v>
       </c>
       <c r="G84">
-        <f t="shared" si="2"/>
+        <f>B84-E84</f>
         <v>0.60795796899999999</v>
       </c>
     </row>
@@ -7284,7 +7283,7 @@
         <v>0.77658183700000005</v>
       </c>
       <c r="G85">
-        <f t="shared" si="2"/>
+        <f>B85-E85</f>
         <v>0.62582068600000007</v>
       </c>
     </row>
@@ -7308,7 +7307,7 @@
         <v>0.72032282199999997</v>
       </c>
       <c r="G86">
-        <f t="shared" si="2"/>
+        <f>B86-E86</f>
         <v>0.63723193300000003</v>
       </c>
     </row>
@@ -7332,7 +7331,7 @@
         <v>0.81113827800000005</v>
       </c>
       <c r="G87">
-        <f t="shared" si="2"/>
+        <f>B87-E87</f>
         <v>0.67366489000000007</v>
       </c>
     </row>
@@ -7356,7 +7355,7 @@
         <v>7.3430971999999997E-2</v>
       </c>
       <c r="G88">
-        <f t="shared" si="2"/>
+        <f>B88-E88</f>
         <v>0.69120481200000006</v>
       </c>
     </row>
@@ -7380,7 +7379,7 @@
         <v>3.3750315000000003E-2</v>
       </c>
       <c r="G89">
-        <f t="shared" si="2"/>
+        <f>B89-E89</f>
         <v>0.70430410200000004</v>
       </c>
     </row>
@@ -7404,7 +7403,7 @@
         <v>0.65529079700000004</v>
       </c>
       <c r="G90">
-        <f t="shared" si="2"/>
+        <f>B90-E90</f>
         <v>0.73905805199999997</v>
       </c>
     </row>
@@ -7428,7 +7427,7 @@
         <v>0.90012671799999999</v>
       </c>
       <c r="G91">
-        <f t="shared" si="2"/>
+        <f>B91-E91</f>
         <v>0.77031780000000005</v>
       </c>
     </row>
@@ -7452,7 +7451,7 @@
         <v>0.68724686000000001</v>
       </c>
       <c r="G92">
-        <f t="shared" si="2"/>
+        <f>B92-E92</f>
         <v>0.83048613500000001</v>
       </c>
     </row>
@@ -7476,7 +7475,7 @@
         <v>9.7125851999999999E-2</v>
       </c>
       <c r="G93">
-        <f t="shared" si="2"/>
+        <f>B93-E93</f>
         <v>0.84190310099999999</v>
       </c>
     </row>
@@ -7500,7 +7499,7 @@
         <v>0.41282753799999999</v>
       </c>
       <c r="G94">
-        <f t="shared" si="2"/>
+        <f>B94-E94</f>
         <v>0.889475401</v>
       </c>
     </row>
@@ -7524,7 +7523,7 @@
         <v>0.98758406700000001</v>
       </c>
       <c r="G95">
-        <f t="shared" si="2"/>
+        <f>B95-E95</f>
         <v>0.89324476800000008</v>
       </c>
     </row>
@@ -7548,7 +7547,7 @@
         <v>0.21542181499999999</v>
       </c>
       <c r="G96">
-        <f t="shared" si="2"/>
+        <f>B96-E96</f>
         <v>1.178970549</v>
       </c>
     </row>
